--- a/Tableau métriques/moyenne/2022_2023/Skill Corner/metrique_pressure.xlsx
+++ b/Tableau métriques/moyenne/2022_2023/Skill Corner/metrique_pressure.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AQ21"/>
+  <dimension ref="A1:AN21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,210 +441,195 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>count_low_pressures_received_in_sample</t>
+          <t>count_low_pressures_received_per_match</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>count_low_pressures_received_per_match</t>
+          <t>count_forced_losses_under_low_pressure_per_match</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>count_forced_losses_under_low_pressure_per_match</t>
+          <t>count_ball_retentions_under_low_pressure_per_match</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>count_ball_retentions_under_low_pressure_per_match</t>
+          <t>ball_retention_ratio_under_low_pressure</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>ball_retention_ratio_under_low_pressure</t>
+          <t>pass_completion_ratio_under_low_pressure</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>pass_completion_ratio_under_low_pressure</t>
+          <t>count_pass_attempts_under_low_pressure_per_match</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>count_pass_attempts_under_low_pressure_per_match</t>
+          <t>count_completed_passes_under_low_pressure_per_match</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>count_completed_passes_under_low_pressure_per_match</t>
+          <t>count_dangerous_pass_attempts_under_low_pressure_per_match</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_pass_attempts_under_low_pressure_per_match</t>
+          <t>count_completed_dangerous_passes_under_low_pressure_per_match</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>count_completed_dangerous_passes_under_low_pressure_per_match</t>
+          <t>dangerous_pass_completion_ratio_under_low_pressure</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>dangerous_pass_completion_ratio_under_low_pressure</t>
+          <t>count_difficult_pass_attempts_under_low_pressure_per_match</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>count_difficult_pass_attempts_under_low_pressure_per_match</t>
+          <t>count_completed_difficult_passes_under_low_pressure_per_match</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>count_completed_difficult_passes_under_low_pressure_per_match</t>
+          <t>difficult_pass_completion_ratio_under_low_pressure</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>difficult_pass_completion_ratio_under_low_pressure</t>
+          <t>count_medium_pressures_received_per_match</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>count_medium_pressures_received_in_sample</t>
+          <t>count_forced_losses_under_medium_pressure_per_match</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>count_medium_pressures_received_per_match</t>
+          <t>count_ball_retentions_under_medium_pressure_per_match</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>count_forced_losses_under_medium_pressure_per_match</t>
+          <t>ball_retention_ratio_under_medium_pressure</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>count_ball_retentions_under_medium_pressure_per_match</t>
+          <t>pass_completion_ratio_under_medium_pressure</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>ball_retention_ratio_under_medium_pressure</t>
+          <t>count_pass_attempts_under_medium_pressure_per_match</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>pass_completion_ratio_under_medium_pressure</t>
+          <t>count_completed_passes_under_medium_pressure_per_match</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>count_pass_attempts_under_medium_pressure_per_match</t>
+          <t>count_dangerous_pass_attempts_under_medium_pressure_per_match</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>count_completed_passes_under_medium_pressure_per_match</t>
+          <t>count_completed_dangerous_passes_under_medium_pressure_per_match</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_pass_attempts_under_medium_pressure_per_match</t>
+          <t>dangerous_pass_completion_ratio_under_medium_pressure</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>count_completed_dangerous_passes_under_medium_pressure_per_match</t>
+          <t>count_difficult_pass_attempts_under_medium_pressure_per_match</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>dangerous_pass_completion_ratio_under_medium_pressure</t>
+          <t>count_completed_difficult_passes_under_medium_pressure_per_match</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>count_difficult_pass_attempts_under_medium_pressure_per_match</t>
+          <t>difficult_pass_completion_ratio_under_medium_pressure</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>count_completed_difficult_passes_under_medium_pressure_per_match</t>
+          <t>count_high_pressures_received_per_match</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>difficult_pass_completion_ratio_under_medium_pressure</t>
+          <t>count_forced_losses_under_high_pressure_per_match</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>count_high_pressures_received_in_sample</t>
+          <t>count_ball_retentions_under_high_pressure_per_match</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>count_high_pressures_received_per_match</t>
+          <t>ball_retention_ratio_under_high_pressure</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>count_forced_losses_under_high_pressure_per_match</t>
+          <t>pass_completion_ratio_under_high_pressure</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>count_ball_retentions_under_high_pressure_per_match</t>
+          <t>count_pass_attempts_under_high_pressure_per_match</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>ball_retention_ratio_under_high_pressure</t>
+          <t>count_completed_passes_under_high_pressure_per_match</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>pass_completion_ratio_under_high_pressure</t>
+          <t>count_dangerous_pass_attempts_under_high_pressure_per_match</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>count_pass_attempts_under_high_pressure_per_match</t>
+          <t>count_completed_dangerous_passes_under_high_pressure_per_match</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>count_completed_passes_under_high_pressure_per_match</t>
+          <t>dangerous_pass_completion_ratio_under_high_pressure</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>count_dangerous_pass_attempts_under_high_pressure_per_match</t>
+          <t>count_difficult_pass_attempts_under_high_pressure_per_match</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
         <is>
-          <t>count_completed_dangerous_passes_under_high_pressure_per_match</t>
+          <t>count_completed_difficult_passes_under_high_pressure_per_match</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
-        <is>
-          <t>dangerous_pass_completion_ratio_under_high_pressure</t>
-        </is>
-      </c>
-      <c r="AO1" s="1" t="inlineStr">
-        <is>
-          <t>count_difficult_pass_attempts_under_high_pressure_per_match</t>
-        </is>
-      </c>
-      <c r="AP1" s="1" t="inlineStr">
-        <is>
-          <t>count_completed_difficult_passes_under_high_pressure_per_match</t>
-        </is>
-      </c>
-      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>difficult_pass_completion_ratio_under_high_pressure</t>
         </is>
@@ -660,127 +645,118 @@
         <v>24.79411764705882</v>
       </c>
       <c r="C2" t="n">
-        <v>24.79411764705882</v>
+        <v>4.147058823529412</v>
       </c>
       <c r="D2" t="n">
-        <v>4.147058823529412</v>
+        <v>20.64705882352941</v>
       </c>
       <c r="E2" t="n">
-        <v>20.64705882352941</v>
+        <v>56.7116636219173</v>
       </c>
       <c r="F2" t="n">
-        <v>816.5691176470588</v>
+        <v>53.10906888209829</v>
       </c>
       <c r="G2" t="n">
-        <v>763.8858823529412</v>
+        <v>21.14705882352941</v>
       </c>
       <c r="H2" t="n">
-        <v>21.14705882352941</v>
+        <v>17.94117647058824</v>
       </c>
       <c r="I2" t="n">
-        <v>17.94117647058824</v>
+        <v>2.205882352941177</v>
       </c>
       <c r="J2" t="n">
-        <v>2.205882352941177</v>
+        <v>1.382352941176471</v>
       </c>
       <c r="K2" t="n">
-        <v>1.382352941176471</v>
+        <v>8.498707175177763</v>
       </c>
       <c r="L2" t="n">
-        <v>123.5294117647059</v>
+        <v>3.588235294117647</v>
       </c>
       <c r="M2" t="n">
-        <v>3.588235294117647</v>
+        <v>1.911764705882353</v>
       </c>
       <c r="N2" t="n">
-        <v>1.911764705882353</v>
+        <v>11.44068465847878</v>
       </c>
       <c r="O2" t="n">
-        <v>165.6861764705882</v>
+        <v>109.3235294117647</v>
       </c>
       <c r="P2" t="n">
-        <v>109.3235294117647</v>
+        <v>22.32352941176471</v>
       </c>
       <c r="Q2" t="n">
-        <v>109.3235294117647</v>
+        <v>87</v>
       </c>
       <c r="R2" t="n">
-        <v>22.32352941176471</v>
+        <v>70.39547677445104</v>
       </c>
       <c r="S2" t="n">
-        <v>87</v>
+        <v>70.03412197973594</v>
       </c>
       <c r="T2" t="n">
-        <v>1012.664117647059</v>
+        <v>92.38235294117646</v>
       </c>
       <c r="U2" t="n">
-        <v>1006.850588235294</v>
+        <v>75.94117647058823</v>
       </c>
       <c r="V2" t="n">
-        <v>92.38235294117646</v>
+        <v>6.264705882352941</v>
       </c>
       <c r="W2" t="n">
-        <v>75.94117647058823</v>
+        <v>2.764705882352941</v>
       </c>
       <c r="X2" t="n">
-        <v>6.264705882352941</v>
+        <v>13.81336425951499</v>
       </c>
       <c r="Y2" t="n">
-        <v>2.764705882352941</v>
+        <v>17.32352941176471</v>
       </c>
       <c r="Z2" t="n">
-        <v>198.2841176470588</v>
+        <v>8</v>
       </c>
       <c r="AA2" t="n">
-        <v>17.32352941176471</v>
+        <v>27.33484078421579</v>
       </c>
       <c r="AB2" t="n">
-        <v>8</v>
+        <v>135.6176470588235</v>
       </c>
       <c r="AC2" t="n">
-        <v>393.7255882352941</v>
+        <v>35.97058823529412</v>
       </c>
       <c r="AD2" t="n">
-        <v>135.6176470588235</v>
+        <v>99.64705882352941</v>
       </c>
       <c r="AE2" t="n">
-        <v>135.6176470588235</v>
+        <v>69.95149898998061</v>
       </c>
       <c r="AF2" t="n">
-        <v>35.97058823529412</v>
+        <v>73.51929417886036</v>
       </c>
       <c r="AG2" t="n">
-        <v>99.64705882352941</v>
+        <v>92.11764705882354</v>
       </c>
       <c r="AH2" t="n">
-        <v>1006.097352941176</v>
+        <v>73.14705882352941</v>
       </c>
       <c r="AI2" t="n">
-        <v>1057.468529411765</v>
+        <v>7.764705882352941</v>
       </c>
       <c r="AJ2" t="n">
-        <v>92.11764705882354</v>
+        <v>3.941176470588236</v>
       </c>
       <c r="AK2" t="n">
-        <v>73.14705882352941</v>
+        <v>19.65765903704139</v>
       </c>
       <c r="AL2" t="n">
-        <v>7.764705882352941</v>
+        <v>19.52941176470588</v>
       </c>
       <c r="AM2" t="n">
-        <v>3.941176470588236</v>
+        <v>9.088235294117647</v>
       </c>
       <c r="AN2" t="n">
-        <v>286.5685294117647</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>19.52941176470588</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>9.088235294117647</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>455.1320588235294</v>
+        <v>31.67145612230906</v>
       </c>
     </row>
     <row r="3">
@@ -793,127 +769,118 @@
         <v>20.55882352941176</v>
       </c>
       <c r="C3" t="n">
-        <v>20.55882352941176</v>
+        <v>4.411764705882353</v>
       </c>
       <c r="D3" t="n">
-        <v>4.411764705882353</v>
+        <v>16.14705882352941</v>
       </c>
       <c r="E3" t="n">
-        <v>16.14705882352941</v>
+        <v>50.62667650976475</v>
       </c>
       <c r="F3" t="n">
-        <v>675.6135294117647</v>
+        <v>47.11254645354646</v>
       </c>
       <c r="G3" t="n">
-        <v>628.0538235294118</v>
+        <v>17.11764705882353</v>
       </c>
       <c r="H3" t="n">
-        <v>17.11764705882353</v>
+        <v>13.70588235294118</v>
       </c>
       <c r="I3" t="n">
-        <v>13.70588235294118</v>
+        <v>2.088235294117647</v>
       </c>
       <c r="J3" t="n">
-        <v>2.088235294117647</v>
+        <v>1.117647058823529</v>
       </c>
       <c r="K3" t="n">
-        <v>1.117647058823529</v>
+        <v>7.542212689271514</v>
       </c>
       <c r="L3" t="n">
-        <v>101.4705882352941</v>
+        <v>2.705882352941177</v>
       </c>
       <c r="M3" t="n">
-        <v>2.705882352941177</v>
+        <v>1.205882352941176</v>
       </c>
       <c r="N3" t="n">
-        <v>1.205882352941176</v>
+        <v>7.737115825351119</v>
       </c>
       <c r="O3" t="n">
-        <v>105.1470588235294</v>
+        <v>97.88235294117646</v>
       </c>
       <c r="P3" t="n">
-        <v>97.88235294117646</v>
+        <v>20.41176470588235</v>
       </c>
       <c r="Q3" t="n">
-        <v>97.88235294117646</v>
+        <v>77.47058823529412</v>
       </c>
       <c r="R3" t="n">
-        <v>20.41176470588235</v>
+        <v>70.65140070713601</v>
       </c>
       <c r="S3" t="n">
-        <v>77.47058823529412</v>
+        <v>71.38406666862549</v>
       </c>
       <c r="T3" t="n">
-        <v>942.035</v>
+        <v>80.97058823529412</v>
       </c>
       <c r="U3" t="n">
-        <v>950.7411764705882</v>
+        <v>65.97058823529412</v>
       </c>
       <c r="V3" t="n">
-        <v>80.97058823529412</v>
+        <v>8.294117647058824</v>
       </c>
       <c r="W3" t="n">
-        <v>65.97058823529412</v>
+        <v>4.764705882352941</v>
       </c>
       <c r="X3" t="n">
-        <v>8.294117647058824</v>
+        <v>22.11362828348123</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.764705882352941</v>
+        <v>15.91176470588235</v>
       </c>
       <c r="Z3" t="n">
-        <v>294.1182352941177</v>
+        <v>8.147058823529411</v>
       </c>
       <c r="AA3" t="n">
-        <v>15.91176470588235</v>
+        <v>31.51944226361873</v>
       </c>
       <c r="AB3" t="n">
-        <v>8.147058823529411</v>
+        <v>122.3823529411765</v>
       </c>
       <c r="AC3" t="n">
-        <v>413.4314705882353</v>
+        <v>34.02941176470588</v>
       </c>
       <c r="AD3" t="n">
-        <v>122.3823529411765</v>
+        <v>88.35294117647059</v>
       </c>
       <c r="AE3" t="n">
-        <v>122.3823529411765</v>
+        <v>67.70786954222248</v>
       </c>
       <c r="AF3" t="n">
-        <v>34.02941176470588</v>
+        <v>69.8739570625453</v>
       </c>
       <c r="AG3" t="n">
-        <v>88.35294117647059</v>
+        <v>76.67647058823529</v>
       </c>
       <c r="AH3" t="n">
-        <v>904.5191176470589</v>
+        <v>58.97058823529412</v>
       </c>
       <c r="AI3" t="n">
-        <v>931.3255882352942</v>
+        <v>9.617647058823529</v>
       </c>
       <c r="AJ3" t="n">
-        <v>76.67647058823529</v>
+        <v>5.058823529411764</v>
       </c>
       <c r="AK3" t="n">
-        <v>58.97058823529412</v>
+        <v>21.82693802276155</v>
       </c>
       <c r="AL3" t="n">
-        <v>9.617647058823529</v>
+        <v>16.41176470588235</v>
       </c>
       <c r="AM3" t="n">
-        <v>5.058823529411764</v>
+        <v>7.470588235294118</v>
       </c>
       <c r="AN3" t="n">
-        <v>287.7455882352941</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>16.41176470588235</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>7.470588235294118</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>389.3276470588235</v>
+        <v>29.16828292295939</v>
       </c>
     </row>
     <row r="4">
@@ -926,127 +893,118 @@
         <v>19.8</v>
       </c>
       <c r="C4" t="n">
-        <v>19.8</v>
+        <v>3.828571428571429</v>
       </c>
       <c r="D4" t="n">
-        <v>3.828571428571429</v>
+        <v>15.97142857142857</v>
       </c>
       <c r="E4" t="n">
-        <v>15.97142857142857</v>
+        <v>53.1296030873888</v>
       </c>
       <c r="F4" t="n">
-        <v>723.4380000000001</v>
+        <v>49.68292363509507</v>
       </c>
       <c r="G4" t="n">
-        <v>673.8579999999999</v>
+        <v>16.34285714285714</v>
       </c>
       <c r="H4" t="n">
-        <v>16.34285714285714</v>
+        <v>13.62857142857143</v>
       </c>
       <c r="I4" t="n">
-        <v>13.62857142857143</v>
+        <v>1.914285714285714</v>
       </c>
       <c r="J4" t="n">
-        <v>1.914285714285714</v>
+        <v>1</v>
       </c>
       <c r="K4" t="n">
-        <v>1</v>
+        <v>6.529908180708181</v>
       </c>
       <c r="L4" t="n">
-        <v>88.09514285714286</v>
+        <v>3.142857142857143</v>
       </c>
       <c r="M4" t="n">
-        <v>3.142857142857143</v>
+        <v>1.657142857142857</v>
       </c>
       <c r="N4" t="n">
-        <v>1.657142857142857</v>
+        <v>9.209021210535496</v>
       </c>
       <c r="O4" t="n">
-        <v>123.0951428571429</v>
+        <v>97.02857142857142</v>
       </c>
       <c r="P4" t="n">
-        <v>97.02857142857142</v>
+        <v>20.48571428571428</v>
       </c>
       <c r="Q4" t="n">
-        <v>97.02857142857142</v>
+        <v>76.54285714285714</v>
       </c>
       <c r="R4" t="n">
-        <v>20.48571428571428</v>
+        <v>69.95306991104134</v>
       </c>
       <c r="S4" t="n">
-        <v>76.54285714285714</v>
+        <v>70.70871322169894</v>
       </c>
       <c r="T4" t="n">
-        <v>950.5645714285715</v>
+        <v>80.42857142857143</v>
       </c>
       <c r="U4" t="n">
-        <v>960.2531428571428</v>
+        <v>65.51428571428572</v>
       </c>
       <c r="V4" t="n">
-        <v>80.42857142857143</v>
+        <v>6.6</v>
       </c>
       <c r="W4" t="n">
-        <v>65.51428571428572</v>
+        <v>3.514285714285714</v>
       </c>
       <c r="X4" t="n">
-        <v>6.6</v>
+        <v>17.88430172684459</v>
       </c>
       <c r="Y4" t="n">
-        <v>3.514285714285714</v>
+        <v>16</v>
       </c>
       <c r="Z4" t="n">
-        <v>245.2388571428572</v>
+        <v>8.142857142857142</v>
       </c>
       <c r="AA4" t="n">
-        <v>16</v>
+        <v>27.47209269143555</v>
       </c>
       <c r="AB4" t="n">
-        <v>8.142857142857142</v>
+        <v>118.3142857142857</v>
       </c>
       <c r="AC4" t="n">
-        <v>379.8328571428571</v>
+        <v>30.85714285714286</v>
       </c>
       <c r="AD4" t="n">
-        <v>118.3142857142857</v>
+        <v>87.45714285714286</v>
       </c>
       <c r="AE4" t="n">
-        <v>118.3142857142857</v>
+        <v>68.78993629862202</v>
       </c>
       <c r="AF4" t="n">
-        <v>30.85714285714286</v>
+        <v>69.38534400837257</v>
       </c>
       <c r="AG4" t="n">
-        <v>87.45714285714286</v>
+        <v>76.2</v>
       </c>
       <c r="AH4" t="n">
-        <v>931.6345714285713</v>
+        <v>59.77142857142857</v>
       </c>
       <c r="AI4" t="n">
-        <v>937.1862857142856</v>
+        <v>8.885714285714286</v>
       </c>
       <c r="AJ4" t="n">
-        <v>76.2</v>
+        <v>4.514285714285714</v>
       </c>
       <c r="AK4" t="n">
-        <v>59.77142857142857</v>
+        <v>20.44114088609803</v>
       </c>
       <c r="AL4" t="n">
-        <v>8.885714285714286</v>
+        <v>15.77142857142857</v>
       </c>
       <c r="AM4" t="n">
-        <v>4.514285714285714</v>
+        <v>7.714285714285714</v>
       </c>
       <c r="AN4" t="n">
-        <v>278.524</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>15.77142857142857</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>7.714285714285714</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>387.9182857142857</v>
+        <v>28.3553830455259</v>
       </c>
     </row>
     <row r="5">
@@ -1059,127 +1017,118 @@
         <v>16.55882352941176</v>
       </c>
       <c r="C5" t="n">
-        <v>16.55882352941176</v>
+        <v>4.941176470588236</v>
       </c>
       <c r="D5" t="n">
-        <v>4.941176470588236</v>
+        <v>11.61764705882353</v>
       </c>
       <c r="E5" t="n">
-        <v>11.61764705882353</v>
+        <v>44.14106987130517</v>
       </c>
       <c r="F5" t="n">
-        <v>586.0791176470588</v>
+        <v>38.48783753991107</v>
       </c>
       <c r="G5" t="n">
-        <v>508.3341176470589</v>
+        <v>13.08823529411765</v>
       </c>
       <c r="H5" t="n">
-        <v>13.08823529411765</v>
+        <v>9.470588235294118</v>
       </c>
       <c r="I5" t="n">
-        <v>9.470588235294118</v>
+        <v>1.764705882352941</v>
       </c>
       <c r="J5" t="n">
-        <v>1.764705882352941</v>
+        <v>0.7941176470588235</v>
       </c>
       <c r="K5" t="n">
-        <v>0.7941176470588235</v>
+        <v>5.19673953497483</v>
       </c>
       <c r="L5" t="n">
-        <v>67.64705882352941</v>
+        <v>3.176470588235294</v>
       </c>
       <c r="M5" t="n">
-        <v>3.176470588235294</v>
+        <v>1.235294117647059</v>
       </c>
       <c r="N5" t="n">
-        <v>1.235294117647059</v>
+        <v>7.784153273197391</v>
       </c>
       <c r="O5" t="n">
-        <v>103.4311764705882</v>
+        <v>81.76470588235294</v>
       </c>
       <c r="P5" t="n">
-        <v>81.76470588235294</v>
+        <v>22.05882352941176</v>
       </c>
       <c r="Q5" t="n">
-        <v>81.76470588235294</v>
+        <v>59.70588235294117</v>
       </c>
       <c r="R5" t="n">
-        <v>22.05882352941176</v>
+        <v>68.31638472312001</v>
       </c>
       <c r="S5" t="n">
-        <v>59.70588235294117</v>
+        <v>67.45644774343303</v>
       </c>
       <c r="T5" t="n">
-        <v>904.9217647058823</v>
+        <v>66.44117647058823</v>
       </c>
       <c r="U5" t="n">
-        <v>892.7285294117647</v>
+        <v>49.70588235294117</v>
       </c>
       <c r="V5" t="n">
-        <v>66.44117647058823</v>
+        <v>6.088235294117647</v>
       </c>
       <c r="W5" t="n">
-        <v>49.70588235294117</v>
+        <v>2.823529411764706</v>
       </c>
       <c r="X5" t="n">
-        <v>6.088235294117647</v>
+        <v>14.39681410746117</v>
       </c>
       <c r="Y5" t="n">
-        <v>2.823529411764706</v>
+        <v>17.08823529411765</v>
       </c>
       <c r="Z5" t="n">
-        <v>191.275</v>
+        <v>7.529411764705882</v>
       </c>
       <c r="AA5" t="n">
-        <v>17.08823529411765</v>
+        <v>27.26160789700495</v>
       </c>
       <c r="AB5" t="n">
-        <v>7.529411764705882</v>
+        <v>120.5588235294118</v>
       </c>
       <c r="AC5" t="n">
-        <v>358.5832352941176</v>
+        <v>36.73529411764706</v>
       </c>
       <c r="AD5" t="n">
-        <v>120.5588235294118</v>
+        <v>83.82352941176471</v>
       </c>
       <c r="AE5" t="n">
-        <v>120.5588235294118</v>
+        <v>66.19089027639028</v>
       </c>
       <c r="AF5" t="n">
-        <v>36.73529411764706</v>
+        <v>69.44308640379229</v>
       </c>
       <c r="AG5" t="n">
-        <v>83.82352941176471</v>
+        <v>77.58823529411765</v>
       </c>
       <c r="AH5" t="n">
-        <v>877.3561764705883</v>
+        <v>57.94117647058823</v>
       </c>
       <c r="AI5" t="n">
-        <v>918.1673529411764</v>
+        <v>8.235294117647058</v>
       </c>
       <c r="AJ5" t="n">
-        <v>77.58823529411765</v>
+        <v>4</v>
       </c>
       <c r="AK5" t="n">
-        <v>57.94117647058823</v>
+        <v>19.62561141799377</v>
       </c>
       <c r="AL5" t="n">
-        <v>8.235294117647058</v>
+        <v>20.35294117647059</v>
       </c>
       <c r="AM5" t="n">
-        <v>4</v>
+        <v>9.529411764705882</v>
       </c>
       <c r="AN5" t="n">
-        <v>257.9405882352941</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>20.35294117647059</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>9.529411764705882</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>439.7829411764706</v>
+        <v>33.61770902626785</v>
       </c>
     </row>
     <row r="6">
@@ -1192,127 +1141,118 @@
         <v>21.59459459459459</v>
       </c>
       <c r="C6" t="n">
-        <v>21.59459459459459</v>
+        <v>3.756756756756757</v>
       </c>
       <c r="D6" t="n">
-        <v>3.756756756756757</v>
+        <v>17.83783783783784</v>
       </c>
       <c r="E6" t="n">
-        <v>17.83783783783784</v>
+        <v>53.08489085239086</v>
       </c>
       <c r="F6" t="n">
-        <v>730.9624324324325</v>
+        <v>49.46820573458074</v>
       </c>
       <c r="G6" t="n">
-        <v>678.3954054054054</v>
+        <v>18.21621621621622</v>
       </c>
       <c r="H6" t="n">
-        <v>18.21621621621622</v>
+        <v>15.24324324324324</v>
       </c>
       <c r="I6" t="n">
-        <v>15.24324324324324</v>
+        <v>1.918918918918919</v>
       </c>
       <c r="J6" t="n">
-        <v>1.918918918918919</v>
+        <v>0.7837837837837838</v>
       </c>
       <c r="K6" t="n">
-        <v>0.7837837837837838</v>
+        <v>5.452589446589447</v>
       </c>
       <c r="L6" t="n">
-        <v>73.87378378378378</v>
+        <v>3.216216216216216</v>
       </c>
       <c r="M6" t="n">
-        <v>3.216216216216216</v>
+        <v>1.648648648648649</v>
       </c>
       <c r="N6" t="n">
-        <v>1.648648648648649</v>
+        <v>10.16172121572122</v>
       </c>
       <c r="O6" t="n">
-        <v>136.4864864864865</v>
+        <v>98.70270270270271</v>
       </c>
       <c r="P6" t="n">
-        <v>98.70270270270271</v>
+        <v>20.86486486486486</v>
       </c>
       <c r="Q6" t="n">
-        <v>98.70270270270271</v>
+        <v>77.83783783783784</v>
       </c>
       <c r="R6" t="n">
-        <v>20.86486486486486</v>
+        <v>71.92247854172854</v>
       </c>
       <c r="S6" t="n">
-        <v>77.83783783783784</v>
+        <v>71.78426270913771</v>
       </c>
       <c r="T6" t="n">
-        <v>990.6908108108107</v>
+        <v>82.10810810810811</v>
       </c>
       <c r="U6" t="n">
-        <v>989.3991891891891</v>
+        <v>66.37837837837837</v>
       </c>
       <c r="V6" t="n">
-        <v>82.10810810810811</v>
+        <v>6.378378378378378</v>
       </c>
       <c r="W6" t="n">
-        <v>66.37837837837837</v>
+        <v>2.756756756756757</v>
       </c>
       <c r="X6" t="n">
-        <v>6.378378378378378</v>
+        <v>15.20216202603703</v>
       </c>
       <c r="Y6" t="n">
-        <v>2.756756756756757</v>
+        <v>16.67567567567568</v>
       </c>
       <c r="Z6" t="n">
-        <v>207.2072972972973</v>
+        <v>8.243243243243244</v>
       </c>
       <c r="AA6" t="n">
-        <v>16.67567567567568</v>
+        <v>29.50203033115533</v>
       </c>
       <c r="AB6" t="n">
-        <v>8.243243243243244</v>
+        <v>124.1891891891892</v>
       </c>
       <c r="AC6" t="n">
-        <v>397.3748648648649</v>
+        <v>33.08108108108108</v>
       </c>
       <c r="AD6" t="n">
-        <v>124.1891891891892</v>
+        <v>91.10810810810811</v>
       </c>
       <c r="AE6" t="n">
-        <v>124.1891891891892</v>
+        <v>70.39945944708445</v>
       </c>
       <c r="AF6" t="n">
-        <v>33.08108108108108</v>
+        <v>71.84583033858034</v>
       </c>
       <c r="AG6" t="n">
-        <v>91.10810810810811</v>
+        <v>82.83783783783784</v>
       </c>
       <c r="AH6" t="n">
-        <v>970.4297297297297</v>
+        <v>64.35135135135135</v>
       </c>
       <c r="AI6" t="n">
-        <v>997.3856756756755</v>
+        <v>8.918918918918919</v>
       </c>
       <c r="AJ6" t="n">
-        <v>82.83783783783784</v>
+        <v>4.72972972972973</v>
       </c>
       <c r="AK6" t="n">
-        <v>64.35135135135135</v>
+        <v>19.52797219334719</v>
       </c>
       <c r="AL6" t="n">
-        <v>8.918918918918919</v>
+        <v>18.62162162162162</v>
       </c>
       <c r="AM6" t="n">
-        <v>4.72972972972973</v>
+        <v>8.378378378378379</v>
       </c>
       <c r="AN6" t="n">
-        <v>273.7840540540541</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>18.62162162162162</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>8.378378378378379</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>399.7394594594595</v>
+        <v>28.8430343035343</v>
       </c>
     </row>
     <row r="7">
@@ -1325,127 +1265,118 @@
         <v>16.34285714285714</v>
       </c>
       <c r="C7" t="n">
-        <v>16.34285714285714</v>
+        <v>4.057142857142857</v>
       </c>
       <c r="D7" t="n">
-        <v>4.057142857142857</v>
+        <v>12.28571428571429</v>
       </c>
       <c r="E7" t="n">
-        <v>12.28571428571429</v>
+        <v>45.18646952571238</v>
       </c>
       <c r="F7" t="n">
-        <v>627.6677142857143</v>
+        <v>43.28366522525094</v>
       </c>
       <c r="G7" t="n">
-        <v>602.096</v>
+        <v>13.82857142857143</v>
       </c>
       <c r="H7" t="n">
-        <v>13.82857142857143</v>
+        <v>10.65714285714286</v>
       </c>
       <c r="I7" t="n">
-        <v>10.65714285714286</v>
+        <v>1.685714285714286</v>
       </c>
       <c r="J7" t="n">
-        <v>1.685714285714286</v>
+        <v>0.8285714285714286</v>
       </c>
       <c r="K7" t="n">
-        <v>0.8285714285714286</v>
+        <v>5.16312259169402</v>
       </c>
       <c r="L7" t="n">
-        <v>72.85714285714286</v>
+        <v>3.285714285714286</v>
       </c>
       <c r="M7" t="n">
-        <v>3.285714285714286</v>
+        <v>1.742857142857143</v>
       </c>
       <c r="N7" t="n">
-        <v>1.742857142857143</v>
+        <v>10.46732805289948</v>
       </c>
       <c r="O7" t="n">
-        <v>144.7617142857143</v>
+        <v>94.62857142857143</v>
       </c>
       <c r="P7" t="n">
-        <v>94.62857142857143</v>
+        <v>20.31428571428571</v>
       </c>
       <c r="Q7" t="n">
-        <v>94.62857142857143</v>
+        <v>74.31428571428572</v>
       </c>
       <c r="R7" t="n">
-        <v>20.31428571428571</v>
+        <v>69.49768280766853</v>
       </c>
       <c r="S7" t="n">
-        <v>74.31428571428572</v>
+        <v>69.81791743018886</v>
       </c>
       <c r="T7" t="n">
-        <v>963.3320000000001</v>
+        <v>79.2</v>
       </c>
       <c r="U7" t="n">
-        <v>967.552</v>
+        <v>63.8</v>
       </c>
       <c r="V7" t="n">
-        <v>79.2</v>
+        <v>6.285714285714286</v>
       </c>
       <c r="W7" t="n">
-        <v>63.8</v>
+        <v>2.885714285714286</v>
       </c>
       <c r="X7" t="n">
-        <v>6.285714285714286</v>
+        <v>14.60790565624851</v>
       </c>
       <c r="Y7" t="n">
-        <v>2.885714285714286</v>
+        <v>17.37142857142857</v>
       </c>
       <c r="Z7" t="n">
-        <v>202.8571428571429</v>
+        <v>8.942857142857143</v>
       </c>
       <c r="AA7" t="n">
-        <v>17.37142857142857</v>
+        <v>28.96528221778222</v>
       </c>
       <c r="AB7" t="n">
-        <v>8.942857142857143</v>
+        <v>122.8</v>
       </c>
       <c r="AC7" t="n">
-        <v>400.5108571428571</v>
+        <v>34.28571428571428</v>
       </c>
       <c r="AD7" t="n">
-        <v>122.8</v>
+        <v>88.51428571428572</v>
       </c>
       <c r="AE7" t="n">
-        <v>122.8</v>
+        <v>67.3104077922078</v>
       </c>
       <c r="AF7" t="n">
-        <v>34.28571428571428</v>
+        <v>69.61411000903858</v>
       </c>
       <c r="AG7" t="n">
-        <v>88.51428571428572</v>
+        <v>81.74285714285715</v>
       </c>
       <c r="AH7" t="n">
-        <v>935.7248571428571</v>
+        <v>62.45714285714286</v>
       </c>
       <c r="AI7" t="n">
-        <v>968.0862857142856</v>
+        <v>9.257142857142858</v>
       </c>
       <c r="AJ7" t="n">
-        <v>81.74285714285715</v>
+        <v>4.657142857142857</v>
       </c>
       <c r="AK7" t="n">
-        <v>62.45714285714286</v>
+        <v>19.62073288140431</v>
       </c>
       <c r="AL7" t="n">
-        <v>9.257142857142858</v>
+        <v>20.14285714285714</v>
       </c>
       <c r="AM7" t="n">
-        <v>4.657142857142857</v>
+        <v>9.685714285714285</v>
       </c>
       <c r="AN7" t="n">
-        <v>275.3337142857143</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>20.14285714285714</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>9.685714285714285</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>439.2997142857143</v>
+        <v>31.73618965796108</v>
       </c>
     </row>
     <row r="8">
@@ -1458,127 +1389,118 @@
         <v>21.28947368421053</v>
       </c>
       <c r="C8" t="n">
-        <v>21.28947368421053</v>
+        <v>3.421052631578947</v>
       </c>
       <c r="D8" t="n">
-        <v>3.421052631578947</v>
+        <v>17.86842105263158</v>
       </c>
       <c r="E8" t="n">
-        <v>17.86842105263158</v>
+        <v>54.03494796869796</v>
       </c>
       <c r="F8" t="n">
-        <v>736.2957894736843</v>
+        <v>52.44234675412307</v>
       </c>
       <c r="G8" t="n">
-        <v>714.3957894736842</v>
+        <v>18.13157894736842</v>
       </c>
       <c r="H8" t="n">
-        <v>18.13157894736842</v>
+        <v>15.47368421052632</v>
       </c>
       <c r="I8" t="n">
-        <v>15.47368421052632</v>
+        <v>1.842105263157895</v>
       </c>
       <c r="J8" t="n">
-        <v>1.842105263157895</v>
+        <v>1.078947368421053</v>
       </c>
       <c r="K8" t="n">
-        <v>1.078947368421053</v>
+        <v>7.295495438771755</v>
       </c>
       <c r="L8" t="n">
-        <v>100</v>
+        <v>3.263157894736842</v>
       </c>
       <c r="M8" t="n">
-        <v>3.263157894736842</v>
+        <v>1.868421052631579</v>
       </c>
       <c r="N8" t="n">
-        <v>1.868421052631579</v>
+        <v>11.84545426503321</v>
       </c>
       <c r="O8" t="n">
-        <v>160.0878947368421</v>
+        <v>111.5</v>
       </c>
       <c r="P8" t="n">
-        <v>111.5</v>
+        <v>21.10526315789474</v>
       </c>
       <c r="Q8" t="n">
-        <v>111.5</v>
+        <v>90.39473684210526</v>
       </c>
       <c r="R8" t="n">
-        <v>21.10526315789474</v>
+        <v>73.94079969153654</v>
       </c>
       <c r="S8" t="n">
-        <v>90.39473684210526</v>
+        <v>74.33575894719316</v>
       </c>
       <c r="T8" t="n">
-        <v>1007.309736842105</v>
+        <v>95.05263157894737</v>
       </c>
       <c r="U8" t="n">
-        <v>1013.453421052632</v>
+        <v>79.21052631578948</v>
       </c>
       <c r="V8" t="n">
-        <v>95.05263157894737</v>
+        <v>7</v>
       </c>
       <c r="W8" t="n">
-        <v>79.21052631578948</v>
+        <v>3.921052631578947</v>
       </c>
       <c r="X8" t="n">
-        <v>7</v>
+        <v>19.47783986189249</v>
       </c>
       <c r="Y8" t="n">
-        <v>3.921052631578947</v>
+        <v>16.05263157894737</v>
       </c>
       <c r="Z8" t="n">
-        <v>265.8771052631579</v>
+        <v>8.605263157894736</v>
       </c>
       <c r="AA8" t="n">
-        <v>16.05263157894737</v>
+        <v>32.94161640114272</v>
       </c>
       <c r="AB8" t="n">
-        <v>8.605263157894736</v>
+        <v>127.2368421052632</v>
       </c>
       <c r="AC8" t="n">
-        <v>445.8992105263158</v>
+        <v>30.21052631578947</v>
       </c>
       <c r="AD8" t="n">
-        <v>127.2368421052632</v>
+        <v>97.02631578947368</v>
       </c>
       <c r="AE8" t="n">
-        <v>127.2368421052632</v>
+        <v>72.23084847170374</v>
       </c>
       <c r="AF8" t="n">
-        <v>30.21052631578947</v>
+        <v>72.95941844997108</v>
       </c>
       <c r="AG8" t="n">
-        <v>97.02631578947368</v>
+        <v>89</v>
       </c>
       <c r="AH8" t="n">
-        <v>982.6673684210526</v>
+        <v>71.52631578947368</v>
       </c>
       <c r="AI8" t="n">
-        <v>994.0292105263158</v>
+        <v>8.631578947368421</v>
       </c>
       <c r="AJ8" t="n">
-        <v>89</v>
+        <v>4.342105263157895</v>
       </c>
       <c r="AK8" t="n">
-        <v>71.52631578947368</v>
+        <v>18.27697649280544</v>
       </c>
       <c r="AL8" t="n">
-        <v>8.631578947368421</v>
+        <v>17.97368421052632</v>
       </c>
       <c r="AM8" t="n">
-        <v>4.342105263157895</v>
+        <v>8.447368421052632</v>
       </c>
       <c r="AN8" t="n">
-        <v>249.0794736842105</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>17.97368421052632</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>8.447368421052632</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>408.4652631578948</v>
+        <v>29.98478305904622</v>
       </c>
     </row>
     <row r="9">
@@ -1591,127 +1513,118 @@
         <v>19.55882352941176</v>
       </c>
       <c r="C9" t="n">
-        <v>19.55882352941176</v>
+        <v>4.647058823529412</v>
       </c>
       <c r="D9" t="n">
-        <v>4.647058823529412</v>
+        <v>14.91176470588235</v>
       </c>
       <c r="E9" t="n">
-        <v>14.91176470588235</v>
+        <v>49.80518003075356</v>
       </c>
       <c r="F9" t="n">
-        <v>669.4720588235294</v>
+        <v>47.2052790885585</v>
       </c>
       <c r="G9" t="n">
-        <v>634.1323529411765</v>
+        <v>16.23529411764706</v>
       </c>
       <c r="H9" t="n">
-        <v>16.23529411764706</v>
+        <v>12.73529411764706</v>
       </c>
       <c r="I9" t="n">
-        <v>12.73529411764706</v>
+        <v>1.882352941176471</v>
       </c>
       <c r="J9" t="n">
-        <v>1.882352941176471</v>
+        <v>0.9117647058823529</v>
       </c>
       <c r="K9" t="n">
-        <v>0.9117647058823529</v>
+        <v>6.046306634541929</v>
       </c>
       <c r="L9" t="n">
-        <v>82.35294117647059</v>
+        <v>3.441176470588236</v>
       </c>
       <c r="M9" t="n">
-        <v>3.441176470588236</v>
+        <v>1.676470588235294</v>
       </c>
       <c r="N9" t="n">
-        <v>1.676470588235294</v>
+        <v>9.837732855379913</v>
       </c>
       <c r="O9" t="n">
-        <v>133.8238235294118</v>
+        <v>95.44117647058823</v>
       </c>
       <c r="P9" t="n">
-        <v>95.44117647058823</v>
+        <v>21.08823529411765</v>
       </c>
       <c r="Q9" t="n">
-        <v>95.44117647058823</v>
+        <v>74.35294117647059</v>
       </c>
       <c r="R9" t="n">
-        <v>21.08823529411765</v>
+        <v>70.45146265499206</v>
       </c>
       <c r="S9" t="n">
-        <v>74.35294117647059</v>
+        <v>71.29096156784392</v>
       </c>
       <c r="T9" t="n">
-        <v>944.1258823529412</v>
+        <v>76.91176470588235</v>
       </c>
       <c r="U9" t="n">
-        <v>957.4605882352942</v>
+        <v>61.5</v>
       </c>
       <c r="V9" t="n">
-        <v>76.91176470588235</v>
+        <v>8</v>
       </c>
       <c r="W9" t="n">
-        <v>61.5</v>
+        <v>3.882352941176471</v>
       </c>
       <c r="X9" t="n">
-        <v>8</v>
+        <v>19.07480209496386</v>
       </c>
       <c r="Y9" t="n">
-        <v>3.882352941176471</v>
+        <v>15.29411764705882</v>
       </c>
       <c r="Z9" t="n">
-        <v>259.2641176470588</v>
+        <v>7.058823529411764</v>
       </c>
       <c r="AA9" t="n">
-        <v>15.29411764705882</v>
+        <v>28.19393563789152</v>
       </c>
       <c r="AB9" t="n">
-        <v>7.058823529411764</v>
+        <v>129.7058823529412</v>
       </c>
       <c r="AC9" t="n">
-        <v>376.0291176470588</v>
+        <v>34.52941176470588</v>
       </c>
       <c r="AD9" t="n">
-        <v>129.7058823529412</v>
+        <v>95.17647058823529</v>
       </c>
       <c r="AE9" t="n">
-        <v>129.7058823529412</v>
+        <v>69.33935357779475</v>
       </c>
       <c r="AF9" t="n">
-        <v>34.52941176470588</v>
+        <v>72.26180969030969</v>
       </c>
       <c r="AG9" t="n">
-        <v>95.17647058823529</v>
+        <v>81.70588235294117</v>
       </c>
       <c r="AH9" t="n">
-        <v>927.0805882352942</v>
+        <v>64.20588235294117</v>
       </c>
       <c r="AI9" t="n">
-        <v>967.6508823529412</v>
+        <v>10.79411764705882</v>
       </c>
       <c r="AJ9" t="n">
-        <v>81.70588235294117</v>
+        <v>5.823529411764706</v>
       </c>
       <c r="AK9" t="n">
-        <v>64.20588235294117</v>
+        <v>22.72013149595503</v>
       </c>
       <c r="AL9" t="n">
-        <v>10.79411764705882</v>
+        <v>16.67647058823529</v>
       </c>
       <c r="AM9" t="n">
-        <v>5.823529411764706</v>
+        <v>7.705882352941177</v>
       </c>
       <c r="AN9" t="n">
-        <v>312.2064705882353</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>16.67647058823529</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>7.705882352941177</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>389.8811764705882</v>
+        <v>28.91593732248144</v>
       </c>
     </row>
     <row r="10">
@@ -1724,127 +1637,118 @@
         <v>23.80555555555556</v>
       </c>
       <c r="C10" t="n">
-        <v>23.80555555555556</v>
+        <v>4.75</v>
       </c>
       <c r="D10" t="n">
-        <v>4.75</v>
+        <v>19.05555555555556</v>
       </c>
       <c r="E10" t="n">
-        <v>19.05555555555556</v>
+        <v>54.49689947089947</v>
       </c>
       <c r="F10" t="n">
-        <v>728.3052777777779</v>
+        <v>51.92714645077145</v>
       </c>
       <c r="G10" t="n">
-        <v>693.7555555555556</v>
+        <v>20.66666666666667</v>
       </c>
       <c r="H10" t="n">
-        <v>20.66666666666667</v>
+        <v>16.75</v>
       </c>
       <c r="I10" t="n">
-        <v>16.75</v>
+        <v>2.166666666666667</v>
       </c>
       <c r="J10" t="n">
-        <v>2.166666666666667</v>
+        <v>1.055555555555556</v>
       </c>
       <c r="K10" t="n">
-        <v>1.055555555555556</v>
+        <v>6.856731231731231</v>
       </c>
       <c r="L10" t="n">
-        <v>88.88888888888889</v>
+        <v>3.694444444444445</v>
       </c>
       <c r="M10" t="n">
-        <v>3.694444444444445</v>
+        <v>1.75</v>
       </c>
       <c r="N10" t="n">
-        <v>1.75</v>
+        <v>10.43078005328005</v>
       </c>
       <c r="O10" t="n">
-        <v>139.0741666666667</v>
+        <v>100.1944444444444</v>
       </c>
       <c r="P10" t="n">
-        <v>100.1944444444444</v>
+        <v>19.80555555555556</v>
       </c>
       <c r="Q10" t="n">
-        <v>100.1944444444444</v>
+        <v>80.38888888888889</v>
       </c>
       <c r="R10" t="n">
-        <v>19.80555555555556</v>
+        <v>74.02142685092684</v>
       </c>
       <c r="S10" t="n">
-        <v>80.38888888888889</v>
+        <v>74.899191988567</v>
       </c>
       <c r="T10" t="n">
-        <v>989.9013888888888</v>
+        <v>84.05555555555556</v>
       </c>
       <c r="U10" t="n">
-        <v>1001.1525</v>
+        <v>69.75</v>
       </c>
       <c r="V10" t="n">
-        <v>84.05555555555556</v>
+        <v>6.527777777777778</v>
       </c>
       <c r="W10" t="n">
-        <v>69.75</v>
+        <v>3.555555555555555</v>
       </c>
       <c r="X10" t="n">
-        <v>6.527777777777778</v>
+        <v>18.25383547933548</v>
       </c>
       <c r="Y10" t="n">
-        <v>3.555555555555555</v>
+        <v>16.16666666666667</v>
       </c>
       <c r="Z10" t="n">
-        <v>244.2127777777778</v>
+        <v>8.305555555555555</v>
       </c>
       <c r="AA10" t="n">
-        <v>16.16666666666667</v>
+        <v>29.41055691993192</v>
       </c>
       <c r="AB10" t="n">
-        <v>8.305555555555555</v>
+        <v>127.4722222222222</v>
       </c>
       <c r="AC10" t="n">
-        <v>393.8111111111111</v>
+        <v>32.66666666666666</v>
       </c>
       <c r="AD10" t="n">
-        <v>127.4722222222222</v>
+        <v>94.80555555555556</v>
       </c>
       <c r="AE10" t="n">
-        <v>127.4722222222222</v>
+        <v>70.2613538082288</v>
       </c>
       <c r="AF10" t="n">
-        <v>32.66666666666666</v>
+        <v>72.78673873348873</v>
       </c>
       <c r="AG10" t="n">
-        <v>94.80555555555556</v>
+        <v>83.69444444444444</v>
       </c>
       <c r="AH10" t="n">
-        <v>940.8425000000001</v>
+        <v>66.44444444444444</v>
       </c>
       <c r="AI10" t="n">
-        <v>974.6855555555555</v>
+        <v>8.222222222222221</v>
       </c>
       <c r="AJ10" t="n">
-        <v>83.69444444444444</v>
+        <v>4.416666666666667</v>
       </c>
       <c r="AK10" t="n">
-        <v>66.44444444444444</v>
+        <v>21.44256142006142</v>
       </c>
       <c r="AL10" t="n">
-        <v>8.222222222222221</v>
+        <v>15.36111111111111</v>
       </c>
       <c r="AM10" t="n">
-        <v>4.416666666666667</v>
+        <v>6.972222222222222</v>
       </c>
       <c r="AN10" t="n">
-        <v>289.5372222222222</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>15.36111111111111</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>6.972222222222222</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>358.1077777777778</v>
+        <v>26.79649184611685</v>
       </c>
     </row>
     <row r="11">
@@ -1857,127 +1761,118 @@
         <v>19.41176470588235</v>
       </c>
       <c r="C11" t="n">
-        <v>19.41176470588235</v>
+        <v>4.441176470588236</v>
       </c>
       <c r="D11" t="n">
-        <v>4.441176470588236</v>
+        <v>14.97058823529412</v>
       </c>
       <c r="E11" t="n">
-        <v>14.97058823529412</v>
+        <v>50.82751559714795</v>
       </c>
       <c r="F11" t="n">
-        <v>683.1938235294118</v>
+        <v>48.96500677263913</v>
       </c>
       <c r="G11" t="n">
-        <v>655.505</v>
+        <v>16.67647058823529</v>
       </c>
       <c r="H11" t="n">
-        <v>16.67647058823529</v>
+        <v>13.23529411764706</v>
       </c>
       <c r="I11" t="n">
-        <v>13.23529411764706</v>
+        <v>1.970588235294118</v>
       </c>
       <c r="J11" t="n">
-        <v>1.970588235294118</v>
+        <v>1.117647058823529</v>
       </c>
       <c r="K11" t="n">
-        <v>1.117647058823529</v>
+        <v>7.599123572505926</v>
       </c>
       <c r="L11" t="n">
-        <v>104.9020588235294</v>
+        <v>2.823529411764706</v>
       </c>
       <c r="M11" t="n">
-        <v>2.823529411764706</v>
+        <v>1.382352941176471</v>
       </c>
       <c r="N11" t="n">
-        <v>1.382352941176471</v>
+        <v>9.102025425554837</v>
       </c>
       <c r="O11" t="n">
-        <v>122.0588235294118</v>
+        <v>101.6176470588235</v>
       </c>
       <c r="P11" t="n">
-        <v>101.6176470588235</v>
+        <v>22.55882352941176</v>
       </c>
       <c r="Q11" t="n">
-        <v>101.6176470588235</v>
+        <v>79.05882352941177</v>
       </c>
       <c r="R11" t="n">
-        <v>22.55882352941176</v>
+        <v>72.18583142347849</v>
       </c>
       <c r="S11" t="n">
-        <v>79.05882352941177</v>
+        <v>72.62062061467944</v>
       </c>
       <c r="T11" t="n">
-        <v>969.9088235294118</v>
+        <v>82.11764705882354</v>
       </c>
       <c r="U11" t="n">
-        <v>974.5682352941176</v>
+        <v>66.14705882352941</v>
       </c>
       <c r="V11" t="n">
-        <v>82.11764705882354</v>
+        <v>6.117647058823529</v>
       </c>
       <c r="W11" t="n">
-        <v>66.14705882352941</v>
+        <v>3.382352941176471</v>
       </c>
       <c r="X11" t="n">
-        <v>6.117647058823529</v>
+        <v>17.29870887445887</v>
       </c>
       <c r="Y11" t="n">
-        <v>3.382352941176471</v>
+        <v>16.14705882352941</v>
       </c>
       <c r="Z11" t="n">
-        <v>228.9217647058824</v>
+        <v>7.911764705882353</v>
       </c>
       <c r="AA11" t="n">
-        <v>16.14705882352941</v>
+        <v>29.62490500186088</v>
       </c>
       <c r="AB11" t="n">
-        <v>7.911764705882353</v>
+        <v>134.2058823529412</v>
       </c>
       <c r="AC11" t="n">
-        <v>394.3023529411765</v>
+        <v>38.35294117647059</v>
       </c>
       <c r="AD11" t="n">
-        <v>134.2058823529412</v>
+        <v>95.85294117647059</v>
       </c>
       <c r="AE11" t="n">
-        <v>134.2058823529412</v>
+        <v>67.42894437915027</v>
       </c>
       <c r="AF11" t="n">
-        <v>38.35294117647059</v>
+        <v>68.60396764020294</v>
       </c>
       <c r="AG11" t="n">
-        <v>95.85294117647059</v>
+        <v>84.08823529411765</v>
       </c>
       <c r="AH11" t="n">
-        <v>909.0141176470588</v>
+        <v>63.6764705882353</v>
       </c>
       <c r="AI11" t="n">
-        <v>922.9926470588235</v>
+        <v>8.676470588235293</v>
       </c>
       <c r="AJ11" t="n">
-        <v>84.08823529411765</v>
+        <v>4.323529411764706</v>
       </c>
       <c r="AK11" t="n">
-        <v>63.6764705882353</v>
+        <v>19.4205712033065</v>
       </c>
       <c r="AL11" t="n">
-        <v>8.676470588235293</v>
+        <v>18.38235294117647</v>
       </c>
       <c r="AM11" t="n">
-        <v>4.323529411764706</v>
+        <v>8.147058823529411</v>
       </c>
       <c r="AN11" t="n">
-        <v>260.8194117647059</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>18.38235294117647</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>8.147058823529411</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>394.9573529411765</v>
+        <v>29.47749194433018</v>
       </c>
     </row>
     <row r="12">
@@ -1990,127 +1885,118 @@
         <v>16.19444444444444</v>
       </c>
       <c r="C12" t="n">
-        <v>16.19444444444444</v>
+        <v>3.472222222222222</v>
       </c>
       <c r="D12" t="n">
-        <v>3.472222222222222</v>
+        <v>12.72222222222222</v>
       </c>
       <c r="E12" t="n">
-        <v>12.72222222222222</v>
+        <v>46.71084498371998</v>
       </c>
       <c r="F12" t="n">
-        <v>640.2955555555556</v>
+        <v>41.0166774013024</v>
       </c>
       <c r="G12" t="n">
-        <v>562.7602777777778</v>
+        <v>13.72222222222222</v>
       </c>
       <c r="H12" t="n">
-        <v>13.72222222222222</v>
+        <v>10.83333333333333</v>
       </c>
       <c r="I12" t="n">
-        <v>10.83333333333333</v>
+        <v>1.611111111111111</v>
       </c>
       <c r="J12" t="n">
-        <v>1.611111111111111</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="K12" t="n">
-        <v>0.7777777777777778</v>
+        <v>4.967687728937729</v>
       </c>
       <c r="L12" t="n">
-        <v>68.98138888888889</v>
+        <v>2.972222222222222</v>
       </c>
       <c r="M12" t="n">
-        <v>2.972222222222222</v>
+        <v>1.555555555555556</v>
       </c>
       <c r="N12" t="n">
-        <v>1.555555555555556</v>
+        <v>8.712032763532765</v>
       </c>
       <c r="O12" t="n">
-        <v>119.4447222222222</v>
+        <v>92</v>
       </c>
       <c r="P12" t="n">
-        <v>92</v>
+        <v>22.30555555555556</v>
       </c>
       <c r="Q12" t="n">
-        <v>92</v>
+        <v>69.69444444444444</v>
       </c>
       <c r="R12" t="n">
-        <v>22.30555555555556</v>
+        <v>68.77357829670331</v>
       </c>
       <c r="S12" t="n">
-        <v>69.69444444444444</v>
+        <v>68.26353988603988</v>
       </c>
       <c r="T12" t="n">
-        <v>934.9844444444445</v>
+        <v>76.58333333333333</v>
       </c>
       <c r="U12" t="n">
-        <v>929.8241666666667</v>
+        <v>59.05555555555556</v>
       </c>
       <c r="V12" t="n">
-        <v>76.58333333333333</v>
+        <v>6.166666666666667</v>
       </c>
       <c r="W12" t="n">
-        <v>59.05555555555556</v>
+        <v>3</v>
       </c>
       <c r="X12" t="n">
-        <v>6.166666666666667</v>
+        <v>15.33212293956044</v>
       </c>
       <c r="Y12" t="n">
-        <v>3</v>
+        <v>20.13888888888889</v>
       </c>
       <c r="Z12" t="n">
-        <v>209.0277777777778</v>
+        <v>10.38888888888889</v>
       </c>
       <c r="AA12" t="n">
-        <v>20.13888888888889</v>
+        <v>34.62746881359381</v>
       </c>
       <c r="AB12" t="n">
-        <v>10.38888888888889</v>
+        <v>119.25</v>
       </c>
       <c r="AC12" t="n">
-        <v>473.6541666666666</v>
+        <v>33.08333333333334</v>
       </c>
       <c r="AD12" t="n">
-        <v>119.25</v>
+        <v>86.16666666666667</v>
       </c>
       <c r="AE12" t="n">
-        <v>119.25</v>
+        <v>68.02654100529099</v>
       </c>
       <c r="AF12" t="n">
-        <v>33.08333333333334</v>
+        <v>67.9362428011803</v>
       </c>
       <c r="AG12" t="n">
-        <v>86.16666666666667</v>
+        <v>76.86111111111111</v>
       </c>
       <c r="AH12" t="n">
-        <v>923.6527777777778</v>
+        <v>58.36111111111111</v>
       </c>
       <c r="AI12" t="n">
-        <v>924.3772222222223</v>
+        <v>8.833333333333334</v>
       </c>
       <c r="AJ12" t="n">
-        <v>76.86111111111111</v>
+        <v>4.5</v>
       </c>
       <c r="AK12" t="n">
-        <v>58.36111111111111</v>
+        <v>18.94135475172975</v>
       </c>
       <c r="AL12" t="n">
-        <v>8.833333333333334</v>
+        <v>18.80555555555556</v>
       </c>
       <c r="AM12" t="n">
-        <v>4.5</v>
+        <v>9.333333333333334</v>
       </c>
       <c r="AN12" t="n">
-        <v>263.4263888888889</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>18.80555555555556</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>9.333333333333334</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>450.2611111111111</v>
+        <v>32.87162726393976</v>
       </c>
     </row>
     <row r="13">
@@ -2123,127 +2009,118 @@
         <v>21.83783783783784</v>
       </c>
       <c r="C13" t="n">
-        <v>21.83783783783784</v>
+        <v>4.513513513513513</v>
       </c>
       <c r="D13" t="n">
-        <v>4.513513513513513</v>
+        <v>17.32432432432432</v>
       </c>
       <c r="E13" t="n">
-        <v>17.32432432432432</v>
+        <v>55.14459094959095</v>
       </c>
       <c r="F13" t="n">
-        <v>764.6413513513513</v>
+        <v>51.97807417357417</v>
       </c>
       <c r="G13" t="n">
-        <v>720.7654054054054</v>
+        <v>18.27027027027027</v>
       </c>
       <c r="H13" t="n">
-        <v>18.27027027027027</v>
+        <v>14.81081081081081</v>
       </c>
       <c r="I13" t="n">
-        <v>14.81081081081081</v>
+        <v>2.378378378378379</v>
       </c>
       <c r="J13" t="n">
-        <v>2.378378378378379</v>
+        <v>1.297297297297297</v>
       </c>
       <c r="K13" t="n">
-        <v>1.297297297297297</v>
+        <v>7.645777645777646</v>
       </c>
       <c r="L13" t="n">
-        <v>109.4594594594595</v>
+        <v>3.54054054054054</v>
       </c>
       <c r="M13" t="n">
-        <v>3.54054054054054</v>
+        <v>1.810810810810811</v>
       </c>
       <c r="N13" t="n">
-        <v>1.810810810810811</v>
+        <v>10.8708928008928</v>
       </c>
       <c r="O13" t="n">
-        <v>151.8018918918919</v>
+        <v>95.18918918918919</v>
       </c>
       <c r="P13" t="n">
-        <v>95.18918918918919</v>
+        <v>20.72972972972973</v>
       </c>
       <c r="Q13" t="n">
-        <v>95.18918918918919</v>
+        <v>74.45945945945945</v>
       </c>
       <c r="R13" t="n">
-        <v>20.72972972972973</v>
+        <v>71.72338406188406</v>
       </c>
       <c r="S13" t="n">
-        <v>74.45945945945945</v>
+        <v>71.83899296649297</v>
       </c>
       <c r="T13" t="n">
-        <v>980.0772972972973</v>
+        <v>78.13513513513513</v>
       </c>
       <c r="U13" t="n">
-        <v>983.1475675675675</v>
+        <v>62.75675675675676</v>
       </c>
       <c r="V13" t="n">
-        <v>78.13513513513513</v>
+        <v>6.027027027027027</v>
       </c>
       <c r="W13" t="n">
-        <v>62.75675675675676</v>
+        <v>2.891891891891892</v>
       </c>
       <c r="X13" t="n">
-        <v>6.027027027027027</v>
+        <v>15.35362063612064</v>
       </c>
       <c r="Y13" t="n">
-        <v>2.891891891891892</v>
+        <v>16.32432432432432</v>
       </c>
       <c r="Z13" t="n">
-        <v>208.7835135135135</v>
+        <v>8.513513513513514</v>
       </c>
       <c r="AA13" t="n">
-        <v>16.32432432432432</v>
+        <v>30.84859077409077</v>
       </c>
       <c r="AB13" t="n">
-        <v>8.513513513513514</v>
+        <v>130.9189189189189</v>
       </c>
       <c r="AC13" t="n">
-        <v>421.7627027027027</v>
+        <v>36.08108108108108</v>
       </c>
       <c r="AD13" t="n">
-        <v>130.9189189189189</v>
+        <v>94.83783783783784</v>
       </c>
       <c r="AE13" t="n">
-        <v>130.9189189189189</v>
+        <v>69.34570449370449</v>
       </c>
       <c r="AF13" t="n">
-        <v>36.08108108108108</v>
+        <v>71.86459255159255</v>
       </c>
       <c r="AG13" t="n">
-        <v>94.83783783783784</v>
+        <v>84.51351351351352</v>
       </c>
       <c r="AH13" t="n">
-        <v>950.2864864864864</v>
+        <v>64.43243243243244</v>
       </c>
       <c r="AI13" t="n">
-        <v>984.4148648648649</v>
+        <v>9.405405405405405</v>
       </c>
       <c r="AJ13" t="n">
-        <v>84.51351351351352</v>
+        <v>4.918918918918919</v>
       </c>
       <c r="AK13" t="n">
-        <v>64.43243243243244</v>
+        <v>21.18172384372384</v>
       </c>
       <c r="AL13" t="n">
-        <v>9.405405405405405</v>
+        <v>18.72972972972973</v>
       </c>
       <c r="AM13" t="n">
-        <v>4.918918918918919</v>
+        <v>8.891891891891891</v>
       </c>
       <c r="AN13" t="n">
-        <v>290.8754054054054</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>18.72972972972973</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>8.891891891891891</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>428.3881081081081</v>
+        <v>31.27110654210654</v>
       </c>
     </row>
     <row r="14">
@@ -2256,127 +2133,118 @@
         <v>17.44736842105263</v>
       </c>
       <c r="C14" t="n">
-        <v>17.44736842105263</v>
+        <v>3.842105263157895</v>
       </c>
       <c r="D14" t="n">
-        <v>3.842105263157895</v>
+        <v>13.60526315789474</v>
       </c>
       <c r="E14" t="n">
-        <v>13.60526315789474</v>
+        <v>46.6733653802338</v>
       </c>
       <c r="F14" t="n">
-        <v>658.1147368421052</v>
+        <v>43.45507321625742</v>
       </c>
       <c r="G14" t="n">
-        <v>612.501052631579</v>
+        <v>14.52631578947368</v>
       </c>
       <c r="H14" t="n">
-        <v>14.52631578947368</v>
+        <v>11.60526315789474</v>
       </c>
       <c r="I14" t="n">
-        <v>11.60526315789474</v>
+        <v>1.5</v>
       </c>
       <c r="J14" t="n">
-        <v>1.5</v>
+        <v>0.7105263157894737</v>
       </c>
       <c r="K14" t="n">
-        <v>0.7105263157894737</v>
+        <v>4.722733406943934</v>
       </c>
       <c r="L14" t="n">
-        <v>64.47368421052632</v>
+        <v>2.526315789473684</v>
       </c>
       <c r="M14" t="n">
-        <v>2.526315789473684</v>
+        <v>1.236842105263158</v>
       </c>
       <c r="N14" t="n">
-        <v>1.236842105263158</v>
+        <v>7.435775645407224</v>
       </c>
       <c r="O14" t="n">
-        <v>102.1928947368421</v>
+        <v>95.76315789473684</v>
       </c>
       <c r="P14" t="n">
-        <v>95.76315789473684</v>
+        <v>21.44736842105263</v>
       </c>
       <c r="Q14" t="n">
-        <v>95.76315789473684</v>
+        <v>74.31578947368421</v>
       </c>
       <c r="R14" t="n">
-        <v>21.44736842105263</v>
+        <v>70.3967357554726</v>
       </c>
       <c r="S14" t="n">
-        <v>74.31578947368421</v>
+        <v>70.275832895175</v>
       </c>
       <c r="T14" t="n">
-        <v>992.9268421052632</v>
+        <v>78.92105263157895</v>
       </c>
       <c r="U14" t="n">
-        <v>990.0078947368422</v>
+        <v>63.07894736842105</v>
       </c>
       <c r="V14" t="n">
-        <v>78.92105263157895</v>
+        <v>6.894736842105263</v>
       </c>
       <c r="W14" t="n">
-        <v>63.07894736842105</v>
+        <v>3.710526315789474</v>
       </c>
       <c r="X14" t="n">
-        <v>6.894736842105263</v>
+        <v>17.32191874791875</v>
       </c>
       <c r="Y14" t="n">
-        <v>3.710526315789474</v>
+        <v>17.07894736842105</v>
       </c>
       <c r="Z14" t="n">
-        <v>244.078947368421</v>
+        <v>8.5</v>
       </c>
       <c r="AA14" t="n">
-        <v>17.07894736842105</v>
+        <v>29.14574638519376</v>
       </c>
       <c r="AB14" t="n">
-        <v>8.5</v>
+        <v>122.3157894736842</v>
       </c>
       <c r="AC14" t="n">
-        <v>410.1360526315789</v>
+        <v>31.92105263157895</v>
       </c>
       <c r="AD14" t="n">
-        <v>122.3157894736842</v>
+        <v>90.39473684210526</v>
       </c>
       <c r="AE14" t="n">
-        <v>122.3157894736842</v>
+        <v>67.73931419457735</v>
       </c>
       <c r="AF14" t="n">
-        <v>31.92105263157895</v>
+        <v>70.35102388839231</v>
       </c>
       <c r="AG14" t="n">
-        <v>90.39473684210526</v>
+        <v>81.34210526315789</v>
       </c>
       <c r="AH14" t="n">
-        <v>955.5034210526316</v>
+        <v>64.18421052631579</v>
       </c>
       <c r="AI14" t="n">
-        <v>991.6289473684211</v>
+        <v>8.184210526315789</v>
       </c>
       <c r="AJ14" t="n">
-        <v>81.34210526315789</v>
+        <v>4.631578947368421</v>
       </c>
       <c r="AK14" t="n">
-        <v>64.18421052631579</v>
+        <v>19.33779251450304</v>
       </c>
       <c r="AL14" t="n">
-        <v>8.184210526315789</v>
+        <v>16.26315789473684</v>
       </c>
       <c r="AM14" t="n">
-        <v>4.631578947368421</v>
+        <v>8</v>
       </c>
       <c r="AN14" t="n">
-        <v>271.9734210526316</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>16.26315789473684</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>8</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>421.1905263157894</v>
+        <v>30.04160466726256</v>
       </c>
     </row>
     <row r="15">
@@ -2389,127 +2257,118 @@
         <v>15.78787878787879</v>
       </c>
       <c r="C15" t="n">
-        <v>15.78787878787879</v>
+        <v>3.272727272727273</v>
       </c>
       <c r="D15" t="n">
-        <v>3.272727272727273</v>
+        <v>12.51515151515152</v>
       </c>
       <c r="E15" t="n">
-        <v>12.51515151515152</v>
+        <v>44.67370419311329</v>
       </c>
       <c r="F15" t="n">
-        <v>614.7075757575757</v>
+        <v>38.97908228471864</v>
       </c>
       <c r="G15" t="n">
-        <v>536.1003030303031</v>
+        <v>13.12121212121212</v>
       </c>
       <c r="H15" t="n">
-        <v>13.12121212121212</v>
+        <v>10.3030303030303</v>
       </c>
       <c r="I15" t="n">
-        <v>10.3030303030303</v>
+        <v>1.818181818181818</v>
       </c>
       <c r="J15" t="n">
+        <v>0.8787878787878788</v>
+      </c>
+      <c r="K15" t="n">
+        <v>6.165718607991336</v>
+      </c>
+      <c r="L15" t="n">
+        <v>3.03030303030303</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.515151515151515</v>
+      </c>
+      <c r="N15" t="n">
+        <v>9.371437545619363</v>
+      </c>
+      <c r="O15" t="n">
+        <v>81.15151515151516</v>
+      </c>
+      <c r="P15" t="n">
+        <v>18.72727272727273</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>62.42424242424242</v>
+      </c>
+      <c r="R15" t="n">
+        <v>66.42392908522453</v>
+      </c>
+      <c r="S15" t="n">
+        <v>65.58751695274422</v>
+      </c>
+      <c r="T15" t="n">
+        <v>65.54545454545455</v>
+      </c>
+      <c r="U15" t="n">
+        <v>52.06060606060606</v>
+      </c>
+      <c r="V15" t="n">
+        <v>4.484848484848484</v>
+      </c>
+      <c r="W15" t="n">
         <v>1.818181818181818</v>
       </c>
-      <c r="K15" t="n">
-        <v>0.8787878787878788</v>
-      </c>
-      <c r="L15" t="n">
-        <v>80.80818181818182</v>
-      </c>
-      <c r="M15" t="n">
-        <v>3.03030303030303</v>
-      </c>
-      <c r="N15" t="n">
-        <v>1.515151515151515</v>
-      </c>
-      <c r="O15" t="n">
-        <v>127.7775757575757</v>
-      </c>
-      <c r="P15" t="n">
-        <v>81.15151515151516</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>81.15151515151516</v>
-      </c>
-      <c r="R15" t="n">
-        <v>18.72727272727273</v>
-      </c>
-      <c r="S15" t="n">
-        <v>62.42424242424242</v>
-      </c>
-      <c r="T15" t="n">
-        <v>912.0830303030303</v>
-      </c>
-      <c r="U15" t="n">
-        <v>905.3215151515152</v>
-      </c>
-      <c r="V15" t="n">
-        <v>65.54545454545455</v>
-      </c>
-      <c r="W15" t="n">
-        <v>52.06060606060606</v>
-      </c>
       <c r="X15" t="n">
-        <v>4.484848484848484</v>
+        <v>10.67449132685496</v>
       </c>
       <c r="Y15" t="n">
-        <v>1.818181818181818</v>
+        <v>15.09090909090909</v>
       </c>
       <c r="Z15" t="n">
-        <v>147.979696969697</v>
+        <v>7.757575757575758</v>
       </c>
       <c r="AA15" t="n">
-        <v>15.09090909090909</v>
+        <v>28.24679868952596</v>
       </c>
       <c r="AB15" t="n">
-        <v>7.757575757575758</v>
+        <v>110</v>
       </c>
       <c r="AC15" t="n">
-        <v>393.1309090909091</v>
+        <v>29.81818181818182</v>
       </c>
       <c r="AD15" t="n">
-        <v>110</v>
+        <v>80.18181818181819</v>
       </c>
       <c r="AE15" t="n">
-        <v>110</v>
+        <v>65.48132433475615</v>
       </c>
       <c r="AF15" t="n">
-        <v>29.81818181818182</v>
+        <v>65.28971202450748</v>
       </c>
       <c r="AG15" t="n">
-        <v>80.18181818181819</v>
+        <v>70.75757575757575</v>
       </c>
       <c r="AH15" t="n">
-        <v>905.2606060606061</v>
+        <v>54.42424242424242</v>
       </c>
       <c r="AI15" t="n">
-        <v>906.2399999999999</v>
+        <v>6.242424242424242</v>
       </c>
       <c r="AJ15" t="n">
-        <v>70.75757575757575</v>
+        <v>3.242424242424242</v>
       </c>
       <c r="AK15" t="n">
-        <v>54.42424242424242</v>
+        <v>17.18332755880483</v>
       </c>
       <c r="AL15" t="n">
-        <v>6.242424242424242</v>
+        <v>17.45454545454545</v>
       </c>
       <c r="AM15" t="n">
-        <v>3.242424242424242</v>
+        <v>8.303030303030303</v>
       </c>
       <c r="AN15" t="n">
-        <v>237.8787878787879</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>17.45454545454545</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>8.303030303030303</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>409.5160606060606</v>
+        <v>29.70912038550675</v>
       </c>
     </row>
     <row r="16">
@@ -2522,127 +2381,118 @@
         <v>15.54545454545454</v>
       </c>
       <c r="C16" t="n">
-        <v>15.54545454545454</v>
+        <v>3.606060606060606</v>
       </c>
       <c r="D16" t="n">
-        <v>3.606060606060606</v>
+        <v>11.93939393939394</v>
       </c>
       <c r="E16" t="n">
-        <v>11.93939393939394</v>
+        <v>44.3159639653276</v>
       </c>
       <c r="F16" t="n">
-        <v>598.0963636363637</v>
+        <v>40.57181463486009</v>
       </c>
       <c r="G16" t="n">
-        <v>547.5260606060606</v>
+        <v>13.03030303030303</v>
       </c>
       <c r="H16" t="n">
-        <v>13.03030303030303</v>
+        <v>10.21212121212121</v>
       </c>
       <c r="I16" t="n">
-        <v>10.21212121212121</v>
+        <v>1.787878787878788</v>
       </c>
       <c r="J16" t="n">
-        <v>1.787878787878788</v>
+        <v>1.060606060606061</v>
       </c>
       <c r="K16" t="n">
-        <v>1.060606060606061</v>
+        <v>7.281859554586828</v>
       </c>
       <c r="L16" t="n">
-        <v>93.18181818181819</v>
+        <v>2.96969696969697</v>
       </c>
       <c r="M16" t="n">
-        <v>2.96969696969697</v>
+        <v>1.515151515151515</v>
       </c>
       <c r="N16" t="n">
-        <v>1.515151515151515</v>
+        <v>9.794909282636555</v>
       </c>
       <c r="O16" t="n">
-        <v>130.0506060606061</v>
+        <v>79.78787878787878</v>
       </c>
       <c r="P16" t="n">
-        <v>79.78787878787878</v>
+        <v>18.42424242424243</v>
       </c>
       <c r="Q16" t="n">
-        <v>79.78787878787878</v>
+        <v>61.36363636363637</v>
       </c>
       <c r="R16" t="n">
-        <v>18.42424242424243</v>
+        <v>68.47979730875184</v>
       </c>
       <c r="S16" t="n">
-        <v>61.36363636363637</v>
+        <v>67.94985269276178</v>
       </c>
       <c r="T16" t="n">
-        <v>919.2575757575758</v>
+        <v>65.18181818181819</v>
       </c>
       <c r="U16" t="n">
-        <v>910.7863636363636</v>
+        <v>51.63636363636363</v>
       </c>
       <c r="V16" t="n">
-        <v>65.18181818181819</v>
+        <v>5.606060606060606</v>
       </c>
       <c r="W16" t="n">
-        <v>51.63636363636363</v>
+        <v>2.939393939393939</v>
       </c>
       <c r="X16" t="n">
-        <v>5.606060606060606</v>
+        <v>15.1693164814983</v>
       </c>
       <c r="Y16" t="n">
-        <v>2.939393939393939</v>
+        <v>15.39393939393939</v>
       </c>
       <c r="Z16" t="n">
-        <v>204.3078787878788</v>
+        <v>7.757575757575758</v>
       </c>
       <c r="AA16" t="n">
-        <v>15.39393939393939</v>
+        <v>31.8220051060051</v>
       </c>
       <c r="AB16" t="n">
-        <v>7.757575757575758</v>
+        <v>107.1818181818182</v>
       </c>
       <c r="AC16" t="n">
-        <v>423.3157575757576</v>
+        <v>31.39393939393939</v>
       </c>
       <c r="AD16" t="n">
-        <v>107.1818181818182</v>
+        <v>75.78787878787878</v>
       </c>
       <c r="AE16" t="n">
-        <v>107.1818181818182</v>
+        <v>68.40090018567291</v>
       </c>
       <c r="AF16" t="n">
-        <v>31.39393939393939</v>
+        <v>69.12883251092342</v>
       </c>
       <c r="AG16" t="n">
-        <v>75.78787878787878</v>
+        <v>69.12121212121212</v>
       </c>
       <c r="AH16" t="n">
-        <v>912.430606060606</v>
+        <v>51.21212121212121</v>
       </c>
       <c r="AI16" t="n">
-        <v>923.1875757575757</v>
+        <v>7.515151515151516</v>
       </c>
       <c r="AJ16" t="n">
-        <v>69.12121212121212</v>
+        <v>3.787878787878788</v>
       </c>
       <c r="AK16" t="n">
-        <v>51.21212121212121</v>
+        <v>19.60716789775881</v>
       </c>
       <c r="AL16" t="n">
-        <v>7.515151515151516</v>
+        <v>17.96969696969697</v>
       </c>
       <c r="AM16" t="n">
-        <v>3.787878787878788</v>
+        <v>8.090909090909092</v>
       </c>
       <c r="AN16" t="n">
-        <v>265.6566666666667</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>17.96969696969697</v>
-      </c>
-      <c r="AP16" t="n">
-        <v>8.090909090909092</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>383.4551515151516</v>
+        <v>28.57390052371871</v>
       </c>
     </row>
     <row r="17">
@@ -2655,127 +2505,118 @@
         <v>16.74285714285714</v>
       </c>
       <c r="C17" t="n">
-        <v>16.74285714285714</v>
+        <v>3.914285714285714</v>
       </c>
       <c r="D17" t="n">
-        <v>3.914285714285714</v>
+        <v>12.82857142857143</v>
       </c>
       <c r="E17" t="n">
-        <v>12.82857142857143</v>
+        <v>45.73274201988487</v>
       </c>
       <c r="F17" t="n">
-        <v>622.7565714285714</v>
+        <v>42.76977132391418</v>
       </c>
       <c r="G17" t="n">
-        <v>585.096</v>
+        <v>13.45714285714286</v>
       </c>
       <c r="H17" t="n">
-        <v>13.45714285714286</v>
+        <v>10.77142857142857</v>
       </c>
       <c r="I17" t="n">
-        <v>10.77142857142857</v>
+        <v>1.4</v>
       </c>
       <c r="J17" t="n">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="K17" t="n">
-        <v>0.8</v>
+        <v>5.323914181057039</v>
       </c>
       <c r="L17" t="n">
-        <v>74.28571428571429</v>
+        <v>3.371428571428571</v>
       </c>
       <c r="M17" t="n">
-        <v>3.371428571428571</v>
+        <v>1.714285714285714</v>
       </c>
       <c r="N17" t="n">
-        <v>1.714285714285714</v>
+        <v>11.42910204081633</v>
       </c>
       <c r="O17" t="n">
-        <v>157.6191428571429</v>
+        <v>87.62857142857143</v>
       </c>
       <c r="P17" t="n">
-        <v>87.62857142857143</v>
+        <v>22.45714285714286</v>
       </c>
       <c r="Q17" t="n">
-        <v>87.62857142857143</v>
+        <v>65.17142857142858</v>
       </c>
       <c r="R17" t="n">
-        <v>22.45714285714286</v>
+        <v>67.22816007326007</v>
       </c>
       <c r="S17" t="n">
-        <v>65.17142857142858</v>
+        <v>67.7445098901099</v>
       </c>
       <c r="T17" t="n">
-        <v>917.4748571428571</v>
+        <v>73.08571428571429</v>
       </c>
       <c r="U17" t="n">
-        <v>924.5182857142858</v>
+        <v>56.17142857142857</v>
       </c>
       <c r="V17" t="n">
-        <v>73.08571428571429</v>
+        <v>5.142857142857143</v>
       </c>
       <c r="W17" t="n">
-        <v>56.17142857142857</v>
+        <v>2.514285714285714</v>
       </c>
       <c r="X17" t="n">
-        <v>5.142857142857143</v>
+        <v>13.03813490319205</v>
       </c>
       <c r="Y17" t="n">
-        <v>2.514285714285714</v>
+        <v>18.48571428571428</v>
       </c>
       <c r="Z17" t="n">
-        <v>178.1431428571429</v>
+        <v>8.6</v>
       </c>
       <c r="AA17" t="n">
-        <v>18.48571428571428</v>
+        <v>30.21985970695971</v>
       </c>
       <c r="AB17" t="n">
-        <v>8.6</v>
+        <v>117.2285714285714</v>
       </c>
       <c r="AC17" t="n">
-        <v>413.4934285714286</v>
+        <v>35.42857142857143</v>
       </c>
       <c r="AD17" t="n">
-        <v>117.2285714285714</v>
+        <v>81.8</v>
       </c>
       <c r="AE17" t="n">
-        <v>117.2285714285714</v>
+        <v>66.16082286760859</v>
       </c>
       <c r="AF17" t="n">
-        <v>35.42857142857143</v>
+        <v>66.2035440607012</v>
       </c>
       <c r="AG17" t="n">
-        <v>81.8</v>
+        <v>72.11428571428571</v>
       </c>
       <c r="AH17" t="n">
-        <v>906.764</v>
+        <v>52.74285714285714</v>
       </c>
       <c r="AI17" t="n">
-        <v>908.7111428571428</v>
+        <v>7.171428571428572</v>
       </c>
       <c r="AJ17" t="n">
-        <v>72.11428571428571</v>
+        <v>3.4</v>
       </c>
       <c r="AK17" t="n">
-        <v>52.74285714285714</v>
+        <v>15.75512140240712</v>
       </c>
       <c r="AL17" t="n">
-        <v>7.171428571428572</v>
+        <v>19.71428571428572</v>
       </c>
       <c r="AM17" t="n">
-        <v>3.4</v>
+        <v>9.314285714285715</v>
       </c>
       <c r="AN17" t="n">
-        <v>218.1431428571429</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>19.71428571428572</v>
-      </c>
-      <c r="AP17" t="n">
-        <v>9.314285714285715</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>463.1771428571429</v>
+        <v>33.92207053898483</v>
       </c>
     </row>
     <row r="18">
@@ -2788,127 +2629,118 @@
         <v>15.91176470588235</v>
       </c>
       <c r="C18" t="n">
-        <v>15.91176470588235</v>
+        <v>4.529411764705882</v>
       </c>
       <c r="D18" t="n">
-        <v>4.529411764705882</v>
+        <v>11.38235294117647</v>
       </c>
       <c r="E18" t="n">
-        <v>11.38235294117647</v>
+        <v>38.65971590174531</v>
       </c>
       <c r="F18" t="n">
-        <v>524.1141176470588</v>
+        <v>35.90740390002155</v>
       </c>
       <c r="G18" t="n">
-        <v>487.5214705882353</v>
+        <v>12.64705882352941</v>
       </c>
       <c r="H18" t="n">
-        <v>12.64705882352941</v>
+        <v>9.352941176470589</v>
       </c>
       <c r="I18" t="n">
-        <v>9.352941176470589</v>
+        <v>1.970588235294118</v>
       </c>
       <c r="J18" t="n">
-        <v>1.970588235294118</v>
+        <v>1.029411764705882</v>
       </c>
       <c r="K18" t="n">
-        <v>1.029411764705882</v>
+        <v>6.273170114199526</v>
       </c>
       <c r="L18" t="n">
-        <v>84.31382352941176</v>
+        <v>3.882352941176471</v>
       </c>
       <c r="M18" t="n">
-        <v>3.882352941176471</v>
+        <v>1.911764705882353</v>
       </c>
       <c r="N18" t="n">
-        <v>1.911764705882353</v>
+        <v>10.7719241542771</v>
       </c>
       <c r="O18" t="n">
-        <v>145.5882352941177</v>
+        <v>83.94117647058823</v>
       </c>
       <c r="P18" t="n">
-        <v>83.94117647058823</v>
+        <v>24.17647058823529</v>
       </c>
       <c r="Q18" t="n">
-        <v>83.94117647058823</v>
+        <v>59.76470588235294</v>
       </c>
       <c r="R18" t="n">
-        <v>24.17647058823529</v>
+        <v>63.61302184335273</v>
       </c>
       <c r="S18" t="n">
-        <v>59.76470588235294</v>
+        <v>62.81668996444732</v>
       </c>
       <c r="T18" t="n">
-        <v>865.3055882352941</v>
+        <v>67.29411764705883</v>
       </c>
       <c r="U18" t="n">
-        <v>857.3385294117646</v>
+        <v>49.58823529411764</v>
       </c>
       <c r="V18" t="n">
-        <v>67.29411764705883</v>
+        <v>5.970588235294118</v>
       </c>
       <c r="W18" t="n">
-        <v>49.58823529411764</v>
+        <v>2.441176470588236</v>
       </c>
       <c r="X18" t="n">
-        <v>5.970588235294118</v>
+        <v>12.05726055806938</v>
       </c>
       <c r="Y18" t="n">
-        <v>2.441176470588236</v>
+        <v>17.17647058823529</v>
       </c>
       <c r="Z18" t="n">
-        <v>165.9314705882353</v>
+        <v>7.823529411764706</v>
       </c>
       <c r="AA18" t="n">
-        <v>17.17647058823529</v>
+        <v>27.26802063132945</v>
       </c>
       <c r="AB18" t="n">
-        <v>7.823529411764706</v>
+        <v>118.0882352941177</v>
       </c>
       <c r="AC18" t="n">
-        <v>372.5455882352941</v>
+        <v>38.64705882352941</v>
       </c>
       <c r="AD18" t="n">
-        <v>118.0882352941177</v>
+        <v>79.44117647058823</v>
       </c>
       <c r="AE18" t="n">
-        <v>118.0882352941177</v>
+        <v>63.28553288623142</v>
       </c>
       <c r="AF18" t="n">
-        <v>38.64705882352941</v>
+        <v>62.99198144257703</v>
       </c>
       <c r="AG18" t="n">
-        <v>79.44117647058823</v>
+        <v>77.41176470588235</v>
       </c>
       <c r="AH18" t="n">
-        <v>859.4670588235294</v>
+        <v>54.79411764705883</v>
       </c>
       <c r="AI18" t="n">
-        <v>853.5494117647058</v>
+        <v>7.764705882352941</v>
       </c>
       <c r="AJ18" t="n">
-        <v>77.41176470588235</v>
+        <v>3.294117647058823</v>
       </c>
       <c r="AK18" t="n">
-        <v>54.79411764705883</v>
+        <v>17.28037998276234</v>
       </c>
       <c r="AL18" t="n">
-        <v>7.764705882352941</v>
+        <v>19.91176470588235</v>
       </c>
       <c r="AM18" t="n">
-        <v>3.294117647058823</v>
+        <v>8.323529411764707</v>
       </c>
       <c r="AN18" t="n">
-        <v>232.3520588235294</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>19.91176470588235</v>
-      </c>
-      <c r="AP18" t="n">
-        <v>8.323529411764707</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>396.3014705882353</v>
+        <v>29.28901642964878</v>
       </c>
     </row>
     <row r="19">
@@ -2921,127 +2753,118 @@
         <v>18.24324324324324</v>
       </c>
       <c r="C19" t="n">
-        <v>18.24324324324324</v>
+        <v>4.189189189189189</v>
       </c>
       <c r="D19" t="n">
-        <v>4.189189189189189</v>
+        <v>14.05405405405405</v>
       </c>
       <c r="E19" t="n">
-        <v>14.05405405405405</v>
+        <v>46.09322482922483</v>
       </c>
       <c r="F19" t="n">
-        <v>655.3175675675676</v>
+        <v>43.8854401049401</v>
       </c>
       <c r="G19" t="n">
-        <v>624.8435135135135</v>
+        <v>15.24324324324324</v>
       </c>
       <c r="H19" t="n">
-        <v>15.24324324324324</v>
+        <v>12.05405405405405</v>
       </c>
       <c r="I19" t="n">
-        <v>12.05405405405405</v>
+        <v>1.648648648648649</v>
       </c>
       <c r="J19" t="n">
-        <v>1.648648648648649</v>
+        <v>0.8648648648648649</v>
       </c>
       <c r="K19" t="n">
-        <v>0.8648648648648649</v>
+        <v>5.259539253539254</v>
       </c>
       <c r="L19" t="n">
-        <v>76.57648648648649</v>
+        <v>2.972972972972973</v>
       </c>
       <c r="M19" t="n">
-        <v>2.972972972972973</v>
+        <v>1.432432432432432</v>
       </c>
       <c r="N19" t="n">
-        <v>1.432432432432432</v>
+        <v>7.964221958221959</v>
       </c>
       <c r="O19" t="n">
-        <v>115.7656756756757</v>
+        <v>94.5945945945946</v>
       </c>
       <c r="P19" t="n">
-        <v>94.5945945945946</v>
+        <v>22.32432432432432</v>
       </c>
       <c r="Q19" t="n">
-        <v>94.5945945945946</v>
+        <v>72.27027027027027</v>
       </c>
       <c r="R19" t="n">
-        <v>22.32432432432432</v>
+        <v>69.65095262845263</v>
       </c>
       <c r="S19" t="n">
-        <v>72.27027027027027</v>
+        <v>69.84670497970498</v>
       </c>
       <c r="T19" t="n">
-        <v>994.6454054054053</v>
+        <v>77.5945945945946</v>
       </c>
       <c r="U19" t="n">
-        <v>996.6775675675675</v>
+        <v>61.05405405405406</v>
       </c>
       <c r="V19" t="n">
-        <v>77.5945945945946</v>
+        <v>6.243243243243243</v>
       </c>
       <c r="W19" t="n">
-        <v>61.05405405405406</v>
+        <v>3.135135135135135</v>
       </c>
       <c r="X19" t="n">
-        <v>6.243243243243243</v>
+        <v>15.15164845064845</v>
       </c>
       <c r="Y19" t="n">
-        <v>3.135135135135135</v>
+        <v>16.45945945945946</v>
       </c>
       <c r="Z19" t="n">
-        <v>216.2613513513514</v>
+        <v>7.972972972972973</v>
       </c>
       <c r="AA19" t="n">
-        <v>16.45945945945946</v>
+        <v>29.75059271359271</v>
       </c>
       <c r="AB19" t="n">
-        <v>7.972972972972973</v>
+        <v>115.4054054054054</v>
       </c>
       <c r="AC19" t="n">
-        <v>427.7378378378378</v>
+        <v>33.18918918918919</v>
       </c>
       <c r="AD19" t="n">
-        <v>115.4054054054054</v>
+        <v>82.21621621621621</v>
       </c>
       <c r="AE19" t="n">
-        <v>115.4054054054054</v>
+        <v>67.73341075141074</v>
       </c>
       <c r="AF19" t="n">
-        <v>33.18918918918919</v>
+        <v>69.81483882783883</v>
       </c>
       <c r="AG19" t="n">
-        <v>82.21621621621621</v>
+        <v>71.72972972972973</v>
       </c>
       <c r="AH19" t="n">
-        <v>964.8618918918919</v>
+        <v>54.64864864864865</v>
       </c>
       <c r="AI19" t="n">
-        <v>994.4837837837838</v>
+        <v>7.243243243243243</v>
       </c>
       <c r="AJ19" t="n">
-        <v>71.72972972972973</v>
+        <v>3.432432432432432</v>
       </c>
       <c r="AK19" t="n">
-        <v>54.64864864864865</v>
+        <v>16.90178546678547</v>
       </c>
       <c r="AL19" t="n">
-        <v>7.243243243243243</v>
+        <v>16.08108108108108</v>
       </c>
       <c r="AM19" t="n">
-        <v>3.432432432432432</v>
+        <v>7.405405405405405</v>
       </c>
       <c r="AN19" t="n">
-        <v>240.7656756756757</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>16.08108108108108</v>
-      </c>
-      <c r="AP19" t="n">
-        <v>7.405405405405405</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>407.612972972973</v>
+        <v>28.73150618750618</v>
       </c>
     </row>
     <row r="20">
@@ -3054,127 +2877,118 @@
         <v>17</v>
       </c>
       <c r="C20" t="n">
-        <v>17</v>
+        <v>3.972972972972973</v>
       </c>
       <c r="D20" t="n">
-        <v>3.972972972972973</v>
+        <v>13.02702702702703</v>
       </c>
       <c r="E20" t="n">
-        <v>13.02702702702703</v>
+        <v>45.07600869850869</v>
       </c>
       <c r="F20" t="n">
-        <v>611.9294594594594</v>
+        <v>42.65242662742663</v>
       </c>
       <c r="G20" t="n">
-        <v>577.997027027027</v>
+        <v>14.16216216216216</v>
       </c>
       <c r="H20" t="n">
-        <v>14.16216216216216</v>
+        <v>11.13513513513514</v>
       </c>
       <c r="I20" t="n">
-        <v>11.13513513513514</v>
+        <v>1.513513513513514</v>
       </c>
       <c r="J20" t="n">
+        <v>0.8108108108108109</v>
+      </c>
+      <c r="K20" t="n">
+        <v>5.196515196515197</v>
+      </c>
+      <c r="L20" t="n">
+        <v>2.918918918918919</v>
+      </c>
+      <c r="M20" t="n">
         <v>1.513513513513514</v>
       </c>
-      <c r="K20" t="n">
-        <v>0.8108108108108109</v>
-      </c>
-      <c r="L20" t="n">
-        <v>72.97297297297297</v>
-      </c>
-      <c r="M20" t="n">
-        <v>2.918918918918919</v>
-      </c>
       <c r="N20" t="n">
-        <v>1.513513513513514</v>
+        <v>8.516465498465498</v>
       </c>
       <c r="O20" t="n">
-        <v>119.3691891891892</v>
+        <v>87.89189189189189</v>
       </c>
       <c r="P20" t="n">
-        <v>87.89189189189189</v>
+        <v>20.02702702702703</v>
       </c>
       <c r="Q20" t="n">
-        <v>87.89189189189189</v>
+        <v>67.86486486486487</v>
       </c>
       <c r="R20" t="n">
-        <v>20.02702702702703</v>
+        <v>69.76389293814294</v>
       </c>
       <c r="S20" t="n">
-        <v>67.86486486486487</v>
+        <v>70.13268683568683</v>
       </c>
       <c r="T20" t="n">
-        <v>949.7929729729728</v>
+        <v>71.43243243243244</v>
       </c>
       <c r="U20" t="n">
-        <v>954.077027027027</v>
+        <v>57.32432432432432</v>
       </c>
       <c r="V20" t="n">
-        <v>71.43243243243244</v>
+        <v>5</v>
       </c>
       <c r="W20" t="n">
-        <v>57.32432432432432</v>
+        <v>2.837837837837838</v>
       </c>
       <c r="X20" t="n">
-        <v>5</v>
+        <v>15.53569498069498</v>
       </c>
       <c r="Y20" t="n">
-        <v>2.837837837837838</v>
+        <v>14.78378378378378</v>
       </c>
       <c r="Z20" t="n">
-        <v>210.8110810810811</v>
+        <v>7.189189189189189</v>
       </c>
       <c r="AA20" t="n">
-        <v>14.78378378378378</v>
+        <v>28.95390048015048</v>
       </c>
       <c r="AB20" t="n">
-        <v>7.189189189189189</v>
+        <v>114.945945945946</v>
       </c>
       <c r="AC20" t="n">
-        <v>392.5094594594595</v>
+        <v>30.37837837837838</v>
       </c>
       <c r="AD20" t="n">
-        <v>114.945945945946</v>
+        <v>84.56756756756756</v>
       </c>
       <c r="AE20" t="n">
-        <v>114.945945945946</v>
+        <v>69.09319261369261</v>
       </c>
       <c r="AF20" t="n">
-        <v>30.37837837837838</v>
+        <v>69.86643376218376</v>
       </c>
       <c r="AG20" t="n">
-        <v>84.56756756756756</v>
+        <v>74.27027027027027</v>
       </c>
       <c r="AH20" t="n">
-        <v>940.66</v>
+        <v>58.08108108108108</v>
       </c>
       <c r="AI20" t="n">
-        <v>951.1294594594594</v>
+        <v>7.378378378378378</v>
       </c>
       <c r="AJ20" t="n">
-        <v>74.27027027027027</v>
+        <v>4.297297297297297</v>
       </c>
       <c r="AK20" t="n">
-        <v>58.08108108108108</v>
+        <v>20.39890533340533</v>
       </c>
       <c r="AL20" t="n">
-        <v>7.378378378378378</v>
+        <v>16.89189189189189</v>
       </c>
       <c r="AM20" t="n">
-        <v>4.297297297297297</v>
+        <v>8.756756756756756</v>
       </c>
       <c r="AN20" t="n">
-        <v>278.7389189189189</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>16.89189189189189</v>
-      </c>
-      <c r="AP20" t="n">
-        <v>8.756756756756756</v>
-      </c>
-      <c r="AQ20" t="n">
-        <v>436.4632432432433</v>
+        <v>31.8078655938656</v>
       </c>
     </row>
     <row r="21">
@@ -3187,127 +3001,118 @@
         <v>12.53333333333333</v>
       </c>
       <c r="C21" t="n">
-        <v>12.53333333333333</v>
+        <v>2.433333333333333</v>
       </c>
       <c r="D21" t="n">
-        <v>2.433333333333333</v>
+        <v>10.1</v>
       </c>
       <c r="E21" t="n">
-        <v>10.1</v>
+        <v>42.00399044936545</v>
       </c>
       <c r="F21" t="n">
-        <v>509.8813333333334</v>
+        <v>39.13386795334295</v>
       </c>
       <c r="G21" t="n">
-        <v>472.167</v>
+        <v>10.63333333333333</v>
       </c>
       <c r="H21" t="n">
-        <v>10.63333333333333</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="I21" t="n">
-        <v>8.699999999999999</v>
+        <v>1.366666666666667</v>
       </c>
       <c r="J21" t="n">
-        <v>1.366666666666667</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="K21" t="n">
-        <v>0.7666666666666667</v>
+        <v>6.603008103008103</v>
       </c>
       <c r="L21" t="n">
-        <v>70</v>
+        <v>2.1</v>
       </c>
       <c r="M21" t="n">
-        <v>2.1</v>
+        <v>0.9</v>
       </c>
       <c r="N21" t="n">
-        <v>0.9</v>
+        <v>5.903305028305028</v>
       </c>
       <c r="O21" t="n">
-        <v>75.83333333333333</v>
+        <v>82.83333333333333</v>
       </c>
       <c r="P21" t="n">
-        <v>82.83333333333333</v>
+        <v>16.73333333333333</v>
       </c>
       <c r="Q21" t="n">
-        <v>82.83333333333333</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="R21" t="n">
-        <v>16.73333333333333</v>
+        <v>70.76394814444815</v>
       </c>
       <c r="S21" t="n">
-        <v>66.09999999999999</v>
+        <v>69.51770802808302</v>
       </c>
       <c r="T21" t="n">
-        <v>823.9516666666666</v>
+        <v>68.13333333333334</v>
       </c>
       <c r="U21" t="n">
-        <v>809.329</v>
+        <v>55.76666666666667</v>
       </c>
       <c r="V21" t="n">
-        <v>68.13333333333334</v>
+        <v>4.166666666666667</v>
       </c>
       <c r="W21" t="n">
-        <v>55.76666666666667</v>
+        <v>2.033333333333333</v>
       </c>
       <c r="X21" t="n">
-        <v>4.166666666666667</v>
+        <v>12.65485394235394</v>
       </c>
       <c r="Y21" t="n">
-        <v>2.033333333333333</v>
+        <v>13.96666666666667</v>
       </c>
       <c r="Z21" t="n">
-        <v>144.4446666666667</v>
+        <v>7.3</v>
       </c>
       <c r="AA21" t="n">
-        <v>13.96666666666667</v>
+        <v>30.58167632922633</v>
       </c>
       <c r="AB21" t="n">
-        <v>7.3</v>
+        <v>106.9333333333333</v>
       </c>
       <c r="AC21" t="n">
-        <v>362.1673333333334</v>
+        <v>26.46666666666667</v>
       </c>
       <c r="AD21" t="n">
-        <v>106.9333333333333</v>
+        <v>80.46666666666667</v>
       </c>
       <c r="AE21" t="n">
-        <v>106.9333333333333</v>
+        <v>70.70048712398713</v>
       </c>
       <c r="AF21" t="n">
-        <v>26.46666666666667</v>
+        <v>72.61546560939061</v>
       </c>
       <c r="AG21" t="n">
-        <v>80.46666666666667</v>
+        <v>67.53333333333333</v>
       </c>
       <c r="AH21" t="n">
-        <v>833.2436666666667</v>
+        <v>54.26666666666667</v>
       </c>
       <c r="AI21" t="n">
-        <v>856.222</v>
+        <v>5.566666666666666</v>
       </c>
       <c r="AJ21" t="n">
-        <v>67.53333333333333</v>
+        <v>3.233333333333333</v>
       </c>
       <c r="AK21" t="n">
-        <v>54.26666666666667</v>
+        <v>18.02415084915085</v>
       </c>
       <c r="AL21" t="n">
-        <v>5.566666666666666</v>
+        <v>12.9</v>
       </c>
       <c r="AM21" t="n">
-        <v>3.233333333333333</v>
+        <v>6.2</v>
       </c>
       <c r="AN21" t="n">
-        <v>216</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="AP21" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AQ21" t="n">
-        <v>351.9446666666666</v>
+        <v>29.27421733451733</v>
       </c>
     </row>
   </sheetData>

--- a/Tableau métriques/moyenne/2022_2023/Skill Corner/metrique_pressure.xlsx
+++ b/Tableau métriques/moyenne/2022_2023/Skill Corner/metrique_pressure.xlsx
@@ -642,121 +642,121 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>24.79411764705882</v>
+        <v>23.27491724299527</v>
       </c>
       <c r="C2" t="n">
-        <v>4.147058823529412</v>
+        <v>3.896803753535621</v>
       </c>
       <c r="D2" t="n">
-        <v>20.64705882352941</v>
+        <v>19.37811348945965</v>
       </c>
       <c r="E2" t="n">
-        <v>56.7116636219173</v>
+        <v>53.07475364689682</v>
       </c>
       <c r="F2" t="n">
-        <v>53.10906888209829</v>
+        <v>49.71167568395605</v>
       </c>
       <c r="G2" t="n">
-        <v>21.14705882352941</v>
+        <v>19.8622924728839</v>
       </c>
       <c r="H2" t="n">
-        <v>17.94117647058824</v>
+        <v>16.8464037929815</v>
       </c>
       <c r="I2" t="n">
-        <v>2.205882352941177</v>
+        <v>2.071245343384731</v>
       </c>
       <c r="J2" t="n">
-        <v>1.382352941176471</v>
+        <v>1.30058368546047</v>
       </c>
       <c r="K2" t="n">
-        <v>8.498707175177763</v>
+        <v>7.998628838554469</v>
       </c>
       <c r="L2" t="n">
-        <v>3.588235294117647</v>
+        <v>3.364067195655435</v>
       </c>
       <c r="M2" t="n">
-        <v>1.911764705882353</v>
+        <v>1.791656596778017</v>
       </c>
       <c r="N2" t="n">
-        <v>11.44068465847878</v>
+        <v>10.71510683399618</v>
       </c>
       <c r="O2" t="n">
-        <v>109.3235294117647</v>
+        <v>102.2756645356831</v>
       </c>
       <c r="P2" t="n">
-        <v>22.32352941176471</v>
+        <v>20.87719764545298</v>
       </c>
       <c r="Q2" t="n">
-        <v>87</v>
+        <v>81.39846689023015</v>
       </c>
       <c r="R2" t="n">
-        <v>70.39547677445104</v>
+        <v>65.83011274814096</v>
       </c>
       <c r="S2" t="n">
-        <v>70.03412197973594</v>
+        <v>65.49999236700648</v>
       </c>
       <c r="T2" t="n">
-        <v>92.38235294117646</v>
+        <v>86.43441382391984</v>
       </c>
       <c r="U2" t="n">
-        <v>75.94117647058823</v>
+        <v>71.06316232257117</v>
       </c>
       <c r="V2" t="n">
-        <v>6.264705882352941</v>
+        <v>5.862999074975512</v>
       </c>
       <c r="W2" t="n">
-        <v>2.764705882352941</v>
+        <v>2.592815824202912</v>
       </c>
       <c r="X2" t="n">
-        <v>13.81336425951499</v>
+        <v>12.97448523173522</v>
       </c>
       <c r="Y2" t="n">
-        <v>17.32352941176471</v>
+        <v>16.18454854206352</v>
       </c>
       <c r="Z2" t="n">
-        <v>8</v>
+        <v>7.466809981923921</v>
       </c>
       <c r="AA2" t="n">
-        <v>27.33484078421579</v>
+        <v>25.55192229154174</v>
       </c>
       <c r="AB2" t="n">
-        <v>135.6176470588235</v>
+        <v>126.7737908823409</v>
       </c>
       <c r="AC2" t="n">
-        <v>35.97058823529412</v>
+        <v>33.59053929559665</v>
       </c>
       <c r="AD2" t="n">
-        <v>99.64705882352941</v>
+        <v>93.18325158674419</v>
       </c>
       <c r="AE2" t="n">
-        <v>69.95149898998061</v>
+        <v>65.44485418440303</v>
       </c>
       <c r="AF2" t="n">
-        <v>73.51929417886036</v>
+        <v>68.77799889856888</v>
       </c>
       <c r="AG2" t="n">
-        <v>92.11764705882354</v>
+        <v>86.10240574027532</v>
       </c>
       <c r="AH2" t="n">
-        <v>73.14705882352941</v>
+        <v>68.38980946626803</v>
       </c>
       <c r="AI2" t="n">
-        <v>7.764705882352941</v>
+        <v>7.261019965689508</v>
       </c>
       <c r="AJ2" t="n">
-        <v>3.941176470588236</v>
+        <v>3.686077918515553</v>
       </c>
       <c r="AK2" t="n">
-        <v>19.65765903704139</v>
+        <v>18.39136489327591</v>
       </c>
       <c r="AL2" t="n">
-        <v>19.52941176470588</v>
+        <v>18.2542473353146</v>
       </c>
       <c r="AM2" t="n">
-        <v>9.088235294117647</v>
+        <v>8.509304461247664</v>
       </c>
       <c r="AN2" t="n">
-        <v>31.67145612230906</v>
+        <v>29.6554724468731</v>
       </c>
     </row>
     <row r="3">
@@ -766,121 +766,121 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20.55882352941176</v>
+        <v>19.49682873869734</v>
       </c>
       <c r="C3" t="n">
-        <v>4.411764705882353</v>
+        <v>4.198503187416318</v>
       </c>
       <c r="D3" t="n">
-        <v>16.14705882352941</v>
+        <v>15.29832555128102</v>
       </c>
       <c r="E3" t="n">
-        <v>50.62667650976475</v>
+        <v>48.18408658902475</v>
       </c>
       <c r="F3" t="n">
-        <v>47.11254645354646</v>
+        <v>44.74702780565884</v>
       </c>
       <c r="G3" t="n">
-        <v>17.11764705882353</v>
+        <v>16.23359811914674</v>
       </c>
       <c r="H3" t="n">
-        <v>13.70588235294118</v>
+        <v>12.97935249340494</v>
       </c>
       <c r="I3" t="n">
-        <v>2.088235294117647</v>
+        <v>1.991626041502052</v>
       </c>
       <c r="J3" t="n">
-        <v>1.117647058823529</v>
+        <v>1.066189001705038</v>
       </c>
       <c r="K3" t="n">
-        <v>7.542212689271514</v>
+        <v>7.213230645822133</v>
       </c>
       <c r="L3" t="n">
-        <v>2.705882352941177</v>
+        <v>2.576501676559058</v>
       </c>
       <c r="M3" t="n">
-        <v>1.205882352941176</v>
+        <v>1.148121825000276</v>
       </c>
       <c r="N3" t="n">
-        <v>7.737115825351119</v>
+        <v>7.350404064829266</v>
       </c>
       <c r="O3" t="n">
-        <v>97.88235294117646</v>
+        <v>93.16294817213034</v>
       </c>
       <c r="P3" t="n">
-        <v>20.41176470588235</v>
+        <v>19.43024119312445</v>
       </c>
       <c r="Q3" t="n">
-        <v>77.47058823529412</v>
+        <v>73.73270697900591</v>
       </c>
       <c r="R3" t="n">
-        <v>70.65140070713601</v>
+        <v>67.69617019915862</v>
       </c>
       <c r="S3" t="n">
-        <v>71.38406666862549</v>
+        <v>68.49176785326512</v>
       </c>
       <c r="T3" t="n">
-        <v>80.97058823529412</v>
+        <v>77.06222785289081</v>
       </c>
       <c r="U3" t="n">
-        <v>65.97058823529412</v>
+        <v>62.78940538648453</v>
       </c>
       <c r="V3" t="n">
-        <v>8.294117647058824</v>
+        <v>7.866953742248564</v>
       </c>
       <c r="W3" t="n">
-        <v>4.764705882352941</v>
+        <v>4.518433010305863</v>
       </c>
       <c r="X3" t="n">
-        <v>22.11362828348123</v>
+        <v>21.00672031196522</v>
       </c>
       <c r="Y3" t="n">
-        <v>15.91176470588235</v>
+        <v>15.20446991505587</v>
       </c>
       <c r="Z3" t="n">
-        <v>8.147058823529411</v>
+        <v>7.824409646171086</v>
       </c>
       <c r="AA3" t="n">
-        <v>31.51944226361873</v>
+        <v>30.4651382979363</v>
       </c>
       <c r="AB3" t="n">
-        <v>122.3823529411765</v>
+        <v>116.2260783636996</v>
       </c>
       <c r="AC3" t="n">
-        <v>34.02941176470588</v>
+        <v>32.30803637345241</v>
       </c>
       <c r="AD3" t="n">
-        <v>88.35294117647059</v>
+        <v>83.91804199024719</v>
       </c>
       <c r="AE3" t="n">
-        <v>67.70786954222248</v>
+        <v>64.78023267751631</v>
       </c>
       <c r="AF3" t="n">
-        <v>69.8739570625453</v>
+        <v>66.88161858413216</v>
       </c>
       <c r="AG3" t="n">
-        <v>76.67647058823529</v>
+        <v>72.78312662344892</v>
       </c>
       <c r="AH3" t="n">
-        <v>58.97058823529412</v>
+        <v>56.00305389382164</v>
       </c>
       <c r="AI3" t="n">
-        <v>9.617647058823529</v>
+        <v>9.135373454959115</v>
       </c>
       <c r="AJ3" t="n">
-        <v>5.058823529411764</v>
+        <v>4.835702171639487</v>
       </c>
       <c r="AK3" t="n">
-        <v>21.82693802276155</v>
+        <v>20.97985359133439</v>
       </c>
       <c r="AL3" t="n">
-        <v>16.41176470588235</v>
+        <v>15.56638341895274</v>
       </c>
       <c r="AM3" t="n">
-        <v>7.470588235294118</v>
+        <v>7.109217823106871</v>
       </c>
       <c r="AN3" t="n">
-        <v>29.16828292295939</v>
+        <v>27.92713374113668</v>
       </c>
     </row>
     <row r="4">
@@ -890,121 +890,121 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.8</v>
+        <v>18.89953840792684</v>
       </c>
       <c r="C4" t="n">
-        <v>3.828571428571429</v>
+        <v>3.672985633028325</v>
       </c>
       <c r="D4" t="n">
-        <v>15.97142857142857</v>
+        <v>15.22655277489851</v>
       </c>
       <c r="E4" t="n">
-        <v>53.1296030873888</v>
+        <v>50.90729262556612</v>
       </c>
       <c r="F4" t="n">
-        <v>49.68292363509507</v>
+        <v>47.69167349052983</v>
       </c>
       <c r="G4" t="n">
-        <v>16.34285714285714</v>
+        <v>15.60039796412051</v>
       </c>
       <c r="H4" t="n">
-        <v>13.62857142857143</v>
+        <v>12.99420337428193</v>
       </c>
       <c r="I4" t="n">
-        <v>1.914285714285714</v>
+        <v>1.849556528814151</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>0.957933600192173</v>
       </c>
       <c r="K4" t="n">
-        <v>6.529908180708181</v>
+        <v>6.243239243014742</v>
       </c>
       <c r="L4" t="n">
-        <v>3.142857142857143</v>
+        <v>3.029839225803267</v>
       </c>
       <c r="M4" t="n">
-        <v>1.657142857142857</v>
+        <v>1.594127703044677</v>
       </c>
       <c r="N4" t="n">
-        <v>9.209021210535496</v>
+        <v>8.929658061354015</v>
       </c>
       <c r="O4" t="n">
-        <v>97.02857142857142</v>
+        <v>92.49318518282458</v>
       </c>
       <c r="P4" t="n">
-        <v>20.48571428571428</v>
+        <v>19.53169145401367</v>
       </c>
       <c r="Q4" t="n">
-        <v>76.54285714285714</v>
+        <v>72.96149372881091</v>
       </c>
       <c r="R4" t="n">
-        <v>69.95306991104134</v>
+        <v>67.28167395252909</v>
       </c>
       <c r="S4" t="n">
-        <v>70.70871322169894</v>
+        <v>68.05015432780223</v>
       </c>
       <c r="T4" t="n">
-        <v>80.42857142857143</v>
+        <v>76.72754160329818</v>
       </c>
       <c r="U4" t="n">
-        <v>65.51428571428572</v>
+        <v>62.490798016909</v>
       </c>
       <c r="V4" t="n">
-        <v>6.6</v>
+        <v>6.310470634278949</v>
       </c>
       <c r="W4" t="n">
-        <v>3.514285714285714</v>
+        <v>3.358446098730119</v>
       </c>
       <c r="X4" t="n">
-        <v>17.88430172684459</v>
+        <v>17.150353049014</v>
       </c>
       <c r="Y4" t="n">
-        <v>16</v>
+        <v>15.18026461482804</v>
       </c>
       <c r="Z4" t="n">
-        <v>8.142857142857142</v>
+        <v>7.704776032507433</v>
       </c>
       <c r="AA4" t="n">
-        <v>27.47209269143555</v>
+        <v>26.08868615409326</v>
       </c>
       <c r="AB4" t="n">
-        <v>118.3142857142857</v>
+        <v>112.6087244898273</v>
       </c>
       <c r="AC4" t="n">
-        <v>30.85714285714286</v>
+        <v>29.27850656627307</v>
       </c>
       <c r="AD4" t="n">
-        <v>87.45714285714286</v>
+        <v>83.33021792355423</v>
       </c>
       <c r="AE4" t="n">
-        <v>68.78993629862202</v>
+        <v>66.3057407928043</v>
       </c>
       <c r="AF4" t="n">
-        <v>69.38534400837257</v>
+        <v>66.96396208708263</v>
       </c>
       <c r="AG4" t="n">
-        <v>76.2</v>
+        <v>72.61601666353434</v>
       </c>
       <c r="AH4" t="n">
-        <v>59.77142857142857</v>
+        <v>57.01224536066768</v>
       </c>
       <c r="AI4" t="n">
-        <v>8.885714285714286</v>
+        <v>8.438612512372899</v>
       </c>
       <c r="AJ4" t="n">
-        <v>4.514285714285714</v>
+        <v>4.286160319109878</v>
       </c>
       <c r="AK4" t="n">
-        <v>20.44114088609803</v>
+        <v>19.66066181710069</v>
       </c>
       <c r="AL4" t="n">
-        <v>15.77142857142857</v>
+        <v>14.93942197761653</v>
       </c>
       <c r="AM4" t="n">
-        <v>7.714285714285714</v>
+        <v>7.288716218704133</v>
       </c>
       <c r="AN4" t="n">
-        <v>28.3553830455259</v>
+        <v>27.10915518123524</v>
       </c>
     </row>
     <row r="5">
@@ -1014,121 +1014,121 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>16.55882352941176</v>
+        <v>15.76910579061132</v>
       </c>
       <c r="C5" t="n">
-        <v>4.941176470588236</v>
+        <v>4.698179466179818</v>
       </c>
       <c r="D5" t="n">
-        <v>11.61764705882353</v>
+        <v>11.0709263244315</v>
       </c>
       <c r="E5" t="n">
-        <v>44.14106987130517</v>
+        <v>42.12272680281485</v>
       </c>
       <c r="F5" t="n">
-        <v>38.48783753991107</v>
+        <v>36.69606758450261</v>
       </c>
       <c r="G5" t="n">
-        <v>13.08823529411765</v>
+        <v>12.47091012373386</v>
       </c>
       <c r="H5" t="n">
-        <v>9.470588235294118</v>
+        <v>9.030136918784471</v>
       </c>
       <c r="I5" t="n">
-        <v>1.764705882352941</v>
+        <v>1.665692680449914</v>
       </c>
       <c r="J5" t="n">
-        <v>0.7941176470588235</v>
+        <v>0.7485417455977105</v>
       </c>
       <c r="K5" t="n">
-        <v>5.19673953497483</v>
+        <v>4.899825388183385</v>
       </c>
       <c r="L5" t="n">
-        <v>3.176470588235294</v>
+        <v>3.027026152915022</v>
       </c>
       <c r="M5" t="n">
-        <v>1.235294117647059</v>
+        <v>1.178476811927969</v>
       </c>
       <c r="N5" t="n">
-        <v>7.784153273197391</v>
+        <v>7.435799337748922</v>
       </c>
       <c r="O5" t="n">
-        <v>81.76470588235294</v>
+        <v>77.90142016074405</v>
       </c>
       <c r="P5" t="n">
-        <v>22.05882352941176</v>
+        <v>20.99706030647988</v>
       </c>
       <c r="Q5" t="n">
-        <v>59.70588235294117</v>
+        <v>56.90435985426416</v>
       </c>
       <c r="R5" t="n">
-        <v>68.31638472312001</v>
+        <v>65.23111199384699</v>
       </c>
       <c r="S5" t="n">
-        <v>67.45644774343303</v>
+        <v>64.38902207808518</v>
       </c>
       <c r="T5" t="n">
-        <v>66.44117647058823</v>
+        <v>63.33135139836113</v>
       </c>
       <c r="U5" t="n">
-        <v>49.70588235294117</v>
+        <v>47.39315316917637</v>
       </c>
       <c r="V5" t="n">
-        <v>6.088235294117647</v>
+        <v>5.790565687707545</v>
       </c>
       <c r="W5" t="n">
-        <v>2.823529411764706</v>
+        <v>2.683495431506924</v>
       </c>
       <c r="X5" t="n">
-        <v>14.39681410746117</v>
+        <v>13.69170908046877</v>
       </c>
       <c r="Y5" t="n">
-        <v>17.08823529411765</v>
+        <v>16.27455913624884</v>
       </c>
       <c r="Z5" t="n">
-        <v>7.529411764705882</v>
+        <v>7.183110580856982</v>
       </c>
       <c r="AA5" t="n">
-        <v>27.26160789700495</v>
+        <v>26.15420449665607</v>
       </c>
       <c r="AB5" t="n">
-        <v>120.5588235294118</v>
+        <v>114.7238581570781</v>
       </c>
       <c r="AC5" t="n">
-        <v>36.73529411764706</v>
+        <v>34.90734468935121</v>
       </c>
       <c r="AD5" t="n">
-        <v>83.82352941176471</v>
+        <v>79.81651346772686</v>
       </c>
       <c r="AE5" t="n">
-        <v>66.19089027639028</v>
+        <v>63.14870333360837</v>
       </c>
       <c r="AF5" t="n">
-        <v>69.44308640379229</v>
+        <v>66.27908978455123</v>
       </c>
       <c r="AG5" t="n">
-        <v>77.58823529411765</v>
+        <v>73.83781950182043</v>
       </c>
       <c r="AH5" t="n">
-        <v>57.94117647058823</v>
+        <v>55.15555444563674</v>
       </c>
       <c r="AI5" t="n">
-        <v>8.235294117647058</v>
+        <v>7.823667236345552</v>
       </c>
       <c r="AJ5" t="n">
-        <v>4</v>
+        <v>3.801454773299004</v>
       </c>
       <c r="AK5" t="n">
-        <v>19.62561141799377</v>
+        <v>18.67567186263166</v>
       </c>
       <c r="AL5" t="n">
-        <v>20.35294117647059</v>
+        <v>19.35346434851416</v>
       </c>
       <c r="AM5" t="n">
-        <v>9.529411764705882</v>
+        <v>9.063585489354924</v>
       </c>
       <c r="AN5" t="n">
-        <v>33.61770902626785</v>
+        <v>31.9915056221884</v>
       </c>
     </row>
     <row r="6">
@@ -1138,121 +1138,121 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>21.59459459459459</v>
+        <v>20.49205216557531</v>
       </c>
       <c r="C6" t="n">
-        <v>3.756756756756757</v>
+        <v>3.571310515787982</v>
       </c>
       <c r="D6" t="n">
-        <v>17.83783783783784</v>
+        <v>16.92074164978733</v>
       </c>
       <c r="E6" t="n">
-        <v>53.08489085239086</v>
+        <v>53.20889909986828</v>
       </c>
       <c r="F6" t="n">
-        <v>49.46820573458074</v>
+        <v>49.80798205973077</v>
       </c>
       <c r="G6" t="n">
-        <v>18.21621621621622</v>
+        <v>17.32123909921387</v>
       </c>
       <c r="H6" t="n">
-        <v>15.24324324324324</v>
+        <v>14.4838548967226</v>
       </c>
       <c r="I6" t="n">
-        <v>1.918918918918919</v>
+        <v>1.788587997940766</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7837837837837838</v>
+        <v>0.7313454809930368</v>
       </c>
       <c r="K6" t="n">
-        <v>5.452589446589447</v>
+        <v>5.092147261696886</v>
       </c>
       <c r="L6" t="n">
-        <v>3.216216216216216</v>
+        <v>3.064223537004162</v>
       </c>
       <c r="M6" t="n">
-        <v>1.648648648648649</v>
+        <v>1.595145844792122</v>
       </c>
       <c r="N6" t="n">
-        <v>10.16172121572122</v>
+        <v>10.85968117777743</v>
       </c>
       <c r="O6" t="n">
-        <v>98.70270270270271</v>
+        <v>94.08332309516857</v>
       </c>
       <c r="P6" t="n">
-        <v>20.86486486486486</v>
+        <v>19.75435539669101</v>
       </c>
       <c r="Q6" t="n">
-        <v>77.83783783783784</v>
+        <v>74.32896769847756</v>
       </c>
       <c r="R6" t="n">
-        <v>71.92247854172854</v>
+        <v>72.13477933062192</v>
       </c>
       <c r="S6" t="n">
-        <v>71.78426270913771</v>
+        <v>71.90588202498414</v>
       </c>
       <c r="T6" t="n">
-        <v>82.10810810810811</v>
+        <v>78.46204257132908</v>
       </c>
       <c r="U6" t="n">
-        <v>66.37837837837837</v>
+        <v>63.50626664015893</v>
       </c>
       <c r="V6" t="n">
-        <v>6.378378378378378</v>
+        <v>6.034066001873508</v>
       </c>
       <c r="W6" t="n">
-        <v>2.756756756756757</v>
+        <v>2.639825697699481</v>
       </c>
       <c r="X6" t="n">
-        <v>15.20216202603703</v>
+        <v>15.60693288744956</v>
       </c>
       <c r="Y6" t="n">
-        <v>16.67567567567568</v>
+        <v>16.18380537507532</v>
       </c>
       <c r="Z6" t="n">
-        <v>8.243243243243244</v>
+        <v>8.119275033781424</v>
       </c>
       <c r="AA6" t="n">
-        <v>29.50203033115533</v>
+        <v>30.95724513744638</v>
       </c>
       <c r="AB6" t="n">
-        <v>124.1891891891892</v>
+        <v>117.3382307261037</v>
       </c>
       <c r="AC6" t="n">
-        <v>33.08108108108108</v>
+        <v>31.22678904916219</v>
       </c>
       <c r="AD6" t="n">
-        <v>91.10810810810811</v>
+        <v>86.11144167694151</v>
       </c>
       <c r="AE6" t="n">
-        <v>70.39945944708445</v>
+        <v>70.64961639133286</v>
       </c>
       <c r="AF6" t="n">
-        <v>71.84583033858034</v>
+        <v>70.58915882190381</v>
       </c>
       <c r="AG6" t="n">
-        <v>82.83783783783784</v>
+        <v>78.06985339137393</v>
       </c>
       <c r="AH6" t="n">
-        <v>64.35135135135135</v>
+        <v>60.62768987173274</v>
       </c>
       <c r="AI6" t="n">
-        <v>8.918918918918919</v>
+        <v>8.342544562171391</v>
       </c>
       <c r="AJ6" t="n">
-        <v>4.72972972972973</v>
+        <v>4.422428482645601</v>
       </c>
       <c r="AK6" t="n">
-        <v>19.52797219334719</v>
+        <v>18.27335084038939</v>
       </c>
       <c r="AL6" t="n">
-        <v>18.62162162162162</v>
+        <v>17.58695976807086</v>
       </c>
       <c r="AM6" t="n">
-        <v>8.378378378378379</v>
+        <v>7.924344496350397</v>
       </c>
       <c r="AN6" t="n">
-        <v>28.8430343035343</v>
+        <v>28.47881086940392</v>
       </c>
     </row>
     <row r="7">
@@ -1262,121 +1262,121 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16.34285714285714</v>
+        <v>15.3935576865116</v>
       </c>
       <c r="C7" t="n">
-        <v>4.057142857142857</v>
+        <v>3.817218607928402</v>
       </c>
       <c r="D7" t="n">
-        <v>12.28571428571429</v>
+        <v>11.5763390785832</v>
       </c>
       <c r="E7" t="n">
-        <v>45.18646952571238</v>
+        <v>42.6816244582277</v>
       </c>
       <c r="F7" t="n">
-        <v>43.28366522525094</v>
+        <v>40.89155429973771</v>
       </c>
       <c r="G7" t="n">
-        <v>13.82857142857143</v>
+        <v>13.02270163012337</v>
       </c>
       <c r="H7" t="n">
-        <v>10.65714285714286</v>
+        <v>10.04154370453105</v>
       </c>
       <c r="I7" t="n">
-        <v>1.685714285714286</v>
+        <v>1.586075306407366</v>
       </c>
       <c r="J7" t="n">
-        <v>0.8285714285714286</v>
+        <v>0.7796578981404144</v>
       </c>
       <c r="K7" t="n">
-        <v>5.16312259169402</v>
+        <v>4.864568823667043</v>
       </c>
       <c r="L7" t="n">
-        <v>3.285714285714286</v>
+        <v>3.092809061038319</v>
       </c>
       <c r="M7" t="n">
-        <v>1.742857142857143</v>
+        <v>1.638484549781601</v>
       </c>
       <c r="N7" t="n">
-        <v>10.46732805289948</v>
+        <v>9.861472029103158</v>
       </c>
       <c r="O7" t="n">
-        <v>94.62857142857143</v>
+        <v>89.32915207478891</v>
       </c>
       <c r="P7" t="n">
-        <v>20.31428571428571</v>
+        <v>19.10046239585643</v>
       </c>
       <c r="Q7" t="n">
-        <v>74.31428571428572</v>
+        <v>70.22868967893248</v>
       </c>
       <c r="R7" t="n">
-        <v>69.49768280766853</v>
+        <v>65.77437633619363</v>
       </c>
       <c r="S7" t="n">
-        <v>69.81791743018886</v>
+        <v>66.07354867644428</v>
       </c>
       <c r="T7" t="n">
-        <v>79.2</v>
+        <v>74.79760962406459</v>
       </c>
       <c r="U7" t="n">
-        <v>63.8</v>
+        <v>60.31500848440449</v>
       </c>
       <c r="V7" t="n">
-        <v>6.285714285714286</v>
+        <v>5.924941457358338</v>
       </c>
       <c r="W7" t="n">
-        <v>2.885714285714286</v>
+        <v>2.725111050744019</v>
       </c>
       <c r="X7" t="n">
-        <v>14.60790565624851</v>
+        <v>13.81563350652991</v>
       </c>
       <c r="Y7" t="n">
-        <v>17.37142857142857</v>
+        <v>16.37156116074028</v>
       </c>
       <c r="Z7" t="n">
-        <v>8.942857142857143</v>
+        <v>8.432524478045577</v>
       </c>
       <c r="AA7" t="n">
-        <v>28.96528221778222</v>
+        <v>27.38415959616872</v>
       </c>
       <c r="AB7" t="n">
-        <v>122.8</v>
+        <v>115.6798856427892</v>
       </c>
       <c r="AC7" t="n">
-        <v>34.28571428571428</v>
+        <v>32.27377312488628</v>
       </c>
       <c r="AD7" t="n">
-        <v>88.51428571428572</v>
+        <v>83.40611251790294</v>
       </c>
       <c r="AE7" t="n">
-        <v>67.3104077922078</v>
+        <v>63.51785041447755</v>
       </c>
       <c r="AF7" t="n">
-        <v>69.61411000903858</v>
+        <v>65.70633662098849</v>
       </c>
       <c r="AG7" t="n">
-        <v>81.74285714285715</v>
+        <v>76.98053148563035</v>
       </c>
       <c r="AH7" t="n">
-        <v>62.45714285714286</v>
+        <v>58.84030680671202</v>
       </c>
       <c r="AI7" t="n">
-        <v>9.257142857142858</v>
+        <v>8.71002317194039</v>
       </c>
       <c r="AJ7" t="n">
-        <v>4.657142857142857</v>
+        <v>4.3831074057847</v>
       </c>
       <c r="AK7" t="n">
-        <v>19.62073288140431</v>
+        <v>18.49252172323722</v>
       </c>
       <c r="AL7" t="n">
-        <v>20.14285714285714</v>
+        <v>18.93449535531651</v>
       </c>
       <c r="AM7" t="n">
-        <v>9.685714285714285</v>
+        <v>9.097771994944228</v>
       </c>
       <c r="AN7" t="n">
-        <v>31.73618965796108</v>
+        <v>29.848434093253</v>
       </c>
     </row>
     <row r="8">
@@ -1386,121 +1386,121 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>21.28947368421053</v>
+        <v>20.21043011388609</v>
       </c>
       <c r="C8" t="n">
-        <v>3.421052631578947</v>
+        <v>3.24695579565576</v>
       </c>
       <c r="D8" t="n">
-        <v>17.86842105263158</v>
+        <v>16.96347431823033</v>
       </c>
       <c r="E8" t="n">
-        <v>54.03494796869796</v>
+        <v>51.32946198901171</v>
       </c>
       <c r="F8" t="n">
-        <v>52.44234675412307</v>
+        <v>49.83592179626889</v>
       </c>
       <c r="G8" t="n">
-        <v>18.13157894736842</v>
+        <v>17.21782456462435</v>
       </c>
       <c r="H8" t="n">
-        <v>15.47368421052632</v>
+        <v>14.69656355337196</v>
       </c>
       <c r="I8" t="n">
-        <v>1.842105263157895</v>
+        <v>1.741932739757305</v>
       </c>
       <c r="J8" t="n">
-        <v>1.078947368421053</v>
+        <v>1.017372438336095</v>
       </c>
       <c r="K8" t="n">
-        <v>7.295495438771755</v>
+        <v>6.891271791124476</v>
       </c>
       <c r="L8" t="n">
-        <v>3.263157894736842</v>
+        <v>3.112489191654594</v>
       </c>
       <c r="M8" t="n">
-        <v>1.868421052631579</v>
+        <v>1.785589564052966</v>
       </c>
       <c r="N8" t="n">
-        <v>11.84545426503321</v>
+        <v>11.34950996723264</v>
       </c>
       <c r="O8" t="n">
-        <v>111.5</v>
+        <v>106.1424213557585</v>
       </c>
       <c r="P8" t="n">
-        <v>21.10526315789474</v>
+        <v>20.13158088363702</v>
       </c>
       <c r="Q8" t="n">
-        <v>90.39473684210526</v>
+        <v>86.01084047212149</v>
       </c>
       <c r="R8" t="n">
-        <v>73.94079969153654</v>
+        <v>70.58275910880138</v>
       </c>
       <c r="S8" t="n">
-        <v>74.33575894719316</v>
+        <v>70.93669060575517</v>
       </c>
       <c r="T8" t="n">
-        <v>95.05263157894737</v>
+        <v>90.39360183484477</v>
       </c>
       <c r="U8" t="n">
-        <v>79.21052631578948</v>
+        <v>75.29680392360449</v>
       </c>
       <c r="V8" t="n">
-        <v>7</v>
+        <v>6.665632251894585</v>
       </c>
       <c r="W8" t="n">
-        <v>3.921052631578947</v>
+        <v>3.740438269464866</v>
       </c>
       <c r="X8" t="n">
-        <v>19.47783986189249</v>
+        <v>18.61217185673556</v>
       </c>
       <c r="Y8" t="n">
-        <v>16.05263157894737</v>
+        <v>15.30696761137601</v>
       </c>
       <c r="Z8" t="n">
-        <v>8.605263157894736</v>
+        <v>8.209963840605493</v>
       </c>
       <c r="AA8" t="n">
-        <v>32.94161640114272</v>
+        <v>31.48484856140885</v>
       </c>
       <c r="AB8" t="n">
-        <v>127.2368421052632</v>
+        <v>120.8911166041524</v>
       </c>
       <c r="AC8" t="n">
-        <v>30.21052631578947</v>
+        <v>28.75873987979534</v>
       </c>
       <c r="AD8" t="n">
-        <v>97.02631578947368</v>
+        <v>92.1323767243571</v>
       </c>
       <c r="AE8" t="n">
-        <v>72.23084847170374</v>
+        <v>68.92234459061056</v>
       </c>
       <c r="AF8" t="n">
-        <v>72.95941844997108</v>
+        <v>69.55037162497857</v>
       </c>
       <c r="AG8" t="n">
-        <v>89</v>
+        <v>84.49815905854061</v>
       </c>
       <c r="AH8" t="n">
-        <v>71.52631578947368</v>
+        <v>67.89295746332333</v>
       </c>
       <c r="AI8" t="n">
-        <v>8.631578947368421</v>
+        <v>8.220351854624971</v>
       </c>
       <c r="AJ8" t="n">
-        <v>4.342105263157895</v>
+        <v>4.137417561771177</v>
       </c>
       <c r="AK8" t="n">
-        <v>18.27697649280544</v>
+        <v>17.44536087396153</v>
       </c>
       <c r="AL8" t="n">
-        <v>17.97368421052632</v>
+        <v>17.1146611172566</v>
       </c>
       <c r="AM8" t="n">
-        <v>8.447368421052632</v>
+        <v>8.057511088475154</v>
       </c>
       <c r="AN8" t="n">
-        <v>29.98478305904622</v>
+        <v>28.61337335004907</v>
       </c>
     </row>
     <row r="9">
@@ -1510,121 +1510,121 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>19.55882352941176</v>
+        <v>18.70036826099381</v>
       </c>
       <c r="C9" t="n">
-        <v>4.647058823529412</v>
+        <v>4.477425797313046</v>
       </c>
       <c r="D9" t="n">
-        <v>14.91176470588235</v>
+        <v>14.22294246368076</v>
       </c>
       <c r="E9" t="n">
-        <v>49.80518003075356</v>
+        <v>48.79073314741206</v>
       </c>
       <c r="F9" t="n">
-        <v>47.2052790885585</v>
+        <v>46.31434336199926</v>
       </c>
       <c r="G9" t="n">
-        <v>16.23529411764706</v>
+        <v>15.49831247510992</v>
       </c>
       <c r="H9" t="n">
-        <v>12.73529411764706</v>
+        <v>12.15276960066829</v>
       </c>
       <c r="I9" t="n">
-        <v>1.882352941176471</v>
+        <v>1.783838030278804</v>
       </c>
       <c r="J9" t="n">
-        <v>0.9117647058823529</v>
+        <v>0.860679298164099</v>
       </c>
       <c r="K9" t="n">
-        <v>6.046306634541929</v>
+        <v>5.721809621269953</v>
       </c>
       <c r="L9" t="n">
-        <v>3.441176470588236</v>
+        <v>3.250360946636795</v>
       </c>
       <c r="M9" t="n">
-        <v>1.676470588235294</v>
+        <v>1.578446734753213</v>
       </c>
       <c r="N9" t="n">
-        <v>9.837732855379913</v>
+        <v>9.288408388977849</v>
       </c>
       <c r="O9" t="n">
-        <v>95.44117647058823</v>
+        <v>92.74999212169243</v>
       </c>
       <c r="P9" t="n">
-        <v>21.08823529411765</v>
+        <v>20.53035931455539</v>
       </c>
       <c r="Q9" t="n">
-        <v>74.35294117647059</v>
+        <v>72.21963280713705</v>
       </c>
       <c r="R9" t="n">
-        <v>70.45146265499206</v>
+        <v>69.328635987179</v>
       </c>
       <c r="S9" t="n">
-        <v>71.29096156784392</v>
+        <v>69.83990077576721</v>
       </c>
       <c r="T9" t="n">
-        <v>76.91176470588235</v>
+        <v>74.96924232213452</v>
       </c>
       <c r="U9" t="n">
-        <v>61.5</v>
+        <v>59.86676665219136</v>
       </c>
       <c r="V9" t="n">
-        <v>8</v>
+        <v>7.601806851232762</v>
       </c>
       <c r="W9" t="n">
-        <v>3.882352941176471</v>
+        <v>3.666447922618933</v>
       </c>
       <c r="X9" t="n">
-        <v>19.07480209496386</v>
+        <v>18.06159608634524</v>
       </c>
       <c r="Y9" t="n">
-        <v>15.29411764705882</v>
+        <v>14.72971269277458</v>
       </c>
       <c r="Z9" t="n">
-        <v>7.058823529411764</v>
+        <v>6.786314895637689</v>
       </c>
       <c r="AA9" t="n">
-        <v>28.19393563789152</v>
+        <v>27.74827604960419</v>
       </c>
       <c r="AB9" t="n">
-        <v>129.7058823529412</v>
+        <v>125.2107218118385</v>
       </c>
       <c r="AC9" t="n">
-        <v>34.52941176470588</v>
+        <v>33.23401070236681</v>
       </c>
       <c r="AD9" t="n">
-        <v>95.17647058823529</v>
+        <v>91.97671110947171</v>
       </c>
       <c r="AE9" t="n">
-        <v>69.33935357779475</v>
+        <v>68.53845011563068</v>
       </c>
       <c r="AF9" t="n">
-        <v>72.26180969030969</v>
+        <v>71.23779884082425</v>
       </c>
       <c r="AG9" t="n">
-        <v>81.70588235294117</v>
+        <v>79.17188060804824</v>
       </c>
       <c r="AH9" t="n">
-        <v>64.20588235294117</v>
+        <v>62.25852561561751</v>
       </c>
       <c r="AI9" t="n">
-        <v>10.79411764705882</v>
+        <v>10.2944941937462</v>
       </c>
       <c r="AJ9" t="n">
-        <v>5.823529411764706</v>
+        <v>5.529820850995169</v>
       </c>
       <c r="AK9" t="n">
-        <v>22.72013149595503</v>
+        <v>21.74102804164049</v>
       </c>
       <c r="AL9" t="n">
-        <v>16.67647058823529</v>
+        <v>16.15688683899567</v>
       </c>
       <c r="AM9" t="n">
-        <v>7.705882352941177</v>
+        <v>7.447497910858881</v>
       </c>
       <c r="AN9" t="n">
-        <v>28.91593732248144</v>
+        <v>28.32475044982068</v>
       </c>
     </row>
     <row r="10">
@@ -1634,121 +1634,121 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>23.80555555555556</v>
+        <v>22.6997708216553</v>
       </c>
       <c r="C10" t="n">
-        <v>4.75</v>
+        <v>4.530562029381954</v>
       </c>
       <c r="D10" t="n">
-        <v>19.05555555555556</v>
+        <v>18.16920879227334</v>
       </c>
       <c r="E10" t="n">
-        <v>54.49689947089947</v>
+        <v>52.22182321428673</v>
       </c>
       <c r="F10" t="n">
-        <v>51.92714645077145</v>
+        <v>49.66700125397625</v>
       </c>
       <c r="G10" t="n">
-        <v>20.66666666666667</v>
+        <v>19.70026133823401</v>
       </c>
       <c r="H10" t="n">
-        <v>16.75</v>
+        <v>15.96501413927995</v>
       </c>
       <c r="I10" t="n">
-        <v>2.166666666666667</v>
+        <v>2.070662918578219</v>
       </c>
       <c r="J10" t="n">
-        <v>1.055555555555556</v>
+        <v>1.012186893735586</v>
       </c>
       <c r="K10" t="n">
-        <v>6.856731231731231</v>
+        <v>6.649379813224498</v>
       </c>
       <c r="L10" t="n">
-        <v>3.694444444444445</v>
+        <v>3.516693213065766</v>
       </c>
       <c r="M10" t="n">
-        <v>1.75</v>
+        <v>1.659059333149848</v>
       </c>
       <c r="N10" t="n">
-        <v>10.43078005328005</v>
+        <v>9.924483288468757</v>
       </c>
       <c r="O10" t="n">
-        <v>100.1944444444444</v>
+        <v>95.39127991846237</v>
       </c>
       <c r="P10" t="n">
-        <v>19.80555555555556</v>
+        <v>18.83060151666845</v>
       </c>
       <c r="Q10" t="n">
-        <v>80.38888888888889</v>
+        <v>76.56067840179394</v>
       </c>
       <c r="R10" t="n">
-        <v>74.02142685092684</v>
+        <v>70.86126118168895</v>
       </c>
       <c r="S10" t="n">
-        <v>74.899191988567</v>
+        <v>71.69149985838108</v>
       </c>
       <c r="T10" t="n">
-        <v>84.05555555555556</v>
+        <v>79.9894362242343</v>
       </c>
       <c r="U10" t="n">
-        <v>69.75</v>
+        <v>66.40964335192774</v>
       </c>
       <c r="V10" t="n">
-        <v>6.527777777777778</v>
+        <v>6.265308249401635</v>
       </c>
       <c r="W10" t="n">
-        <v>3.555555555555555</v>
+        <v>3.408443685631819</v>
       </c>
       <c r="X10" t="n">
-        <v>18.25383547933548</v>
+        <v>17.45548755467344</v>
       </c>
       <c r="Y10" t="n">
-        <v>16.16666666666667</v>
+        <v>15.34094705993874</v>
       </c>
       <c r="Z10" t="n">
-        <v>8.305555555555555</v>
+        <v>7.864099110482556</v>
       </c>
       <c r="AA10" t="n">
-        <v>29.41055691993192</v>
+        <v>28.01708466565684</v>
       </c>
       <c r="AB10" t="n">
-        <v>127.4722222222222</v>
+        <v>121.4528075179073</v>
       </c>
       <c r="AC10" t="n">
-        <v>32.66666666666666</v>
+        <v>31.06751545857139</v>
       </c>
       <c r="AD10" t="n">
-        <v>94.80555555555556</v>
+        <v>90.38529205933595</v>
       </c>
       <c r="AE10" t="n">
-        <v>70.2613538082288</v>
+        <v>67.17413158063029</v>
       </c>
       <c r="AF10" t="n">
-        <v>72.78673873348873</v>
+        <v>69.52835330063638</v>
       </c>
       <c r="AG10" t="n">
-        <v>83.69444444444444</v>
+        <v>79.71457003884625</v>
       </c>
       <c r="AH10" t="n">
-        <v>66.44444444444444</v>
+        <v>63.35135905628486</v>
       </c>
       <c r="AI10" t="n">
-        <v>8.222222222222221</v>
+        <v>7.812511560821207</v>
       </c>
       <c r="AJ10" t="n">
-        <v>4.416666666666667</v>
+        <v>4.190783944525053</v>
       </c>
       <c r="AK10" t="n">
-        <v>21.44256142006142</v>
+        <v>20.37110243956295</v>
       </c>
       <c r="AL10" t="n">
-        <v>15.36111111111111</v>
+        <v>14.521622342189</v>
       </c>
       <c r="AM10" t="n">
-        <v>6.972222222222222</v>
+        <v>6.587366799336039</v>
       </c>
       <c r="AN10" t="n">
-        <v>26.79649184611685</v>
+        <v>25.49606773408551</v>
       </c>
     </row>
     <row r="11">
@@ -1758,121 +1758,121 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>19.41176470588235</v>
+        <v>18.34794499749376</v>
       </c>
       <c r="C11" t="n">
-        <v>4.441176470588236</v>
+        <v>4.207889923211487</v>
       </c>
       <c r="D11" t="n">
-        <v>14.97058823529412</v>
+        <v>14.14005507428227</v>
       </c>
       <c r="E11" t="n">
-        <v>50.82751559714795</v>
+        <v>48.07613762129714</v>
       </c>
       <c r="F11" t="n">
-        <v>48.96500677263913</v>
+        <v>46.32145354525143</v>
       </c>
       <c r="G11" t="n">
-        <v>16.67647058823529</v>
+        <v>15.76102868413053</v>
       </c>
       <c r="H11" t="n">
-        <v>13.23529411764706</v>
+        <v>12.50081787490408</v>
       </c>
       <c r="I11" t="n">
-        <v>1.970588235294118</v>
+        <v>1.855678261141646</v>
       </c>
       <c r="J11" t="n">
-        <v>1.117647058823529</v>
+        <v>1.051590463114668</v>
       </c>
       <c r="K11" t="n">
-        <v>7.599123572505926</v>
+        <v>7.156785193116498</v>
       </c>
       <c r="L11" t="n">
-        <v>2.823529411764706</v>
+        <v>2.661887484391383</v>
       </c>
       <c r="M11" t="n">
-        <v>1.382352941176471</v>
+        <v>1.299855759765312</v>
       </c>
       <c r="N11" t="n">
-        <v>9.102025425554837</v>
+        <v>8.572099190062877</v>
       </c>
       <c r="O11" t="n">
-        <v>101.6176470588235</v>
+        <v>96.16081966819822</v>
       </c>
       <c r="P11" t="n">
-        <v>22.55882352941176</v>
+        <v>21.36802541002547</v>
       </c>
       <c r="Q11" t="n">
-        <v>79.05882352941177</v>
+        <v>74.79279425817273</v>
       </c>
       <c r="R11" t="n">
-        <v>72.18583142347849</v>
+        <v>68.39261873498849</v>
       </c>
       <c r="S11" t="n">
-        <v>72.62062061467944</v>
+        <v>68.82672405666665</v>
       </c>
       <c r="T11" t="n">
-        <v>82.11764705882354</v>
+        <v>77.73074952241618</v>
       </c>
       <c r="U11" t="n">
-        <v>66.14705882352941</v>
+        <v>62.59495675197137</v>
       </c>
       <c r="V11" t="n">
-        <v>6.117647058823529</v>
+        <v>5.795655081855726</v>
       </c>
       <c r="W11" t="n">
-        <v>3.382352941176471</v>
+        <v>3.192148500873197</v>
       </c>
       <c r="X11" t="n">
-        <v>17.29870887445887</v>
+        <v>16.32395727110215</v>
       </c>
       <c r="Y11" t="n">
-        <v>16.14705882352941</v>
+        <v>15.32701531067737</v>
       </c>
       <c r="Z11" t="n">
-        <v>7.911764705882353</v>
+        <v>7.500974005072781</v>
       </c>
       <c r="AA11" t="n">
-        <v>29.62490500186088</v>
+        <v>28.05209310325446</v>
       </c>
       <c r="AB11" t="n">
-        <v>134.2058823529412</v>
+        <v>127.1386309356154</v>
       </c>
       <c r="AC11" t="n">
-        <v>38.35294117647059</v>
+        <v>36.33929671135835</v>
       </c>
       <c r="AD11" t="n">
-        <v>95.85294117647059</v>
+        <v>90.79933422425711</v>
       </c>
       <c r="AE11" t="n">
-        <v>67.42894437915027</v>
+        <v>63.88725550343209</v>
       </c>
       <c r="AF11" t="n">
-        <v>68.60396764020294</v>
+        <v>65.0496319397844</v>
       </c>
       <c r="AG11" t="n">
-        <v>84.08823529411765</v>
+        <v>79.62090908334253</v>
       </c>
       <c r="AH11" t="n">
-        <v>63.6764705882353</v>
+        <v>60.31511195386418</v>
       </c>
       <c r="AI11" t="n">
-        <v>8.676470588235293</v>
+        <v>8.221074088640586</v>
       </c>
       <c r="AJ11" t="n">
-        <v>4.323529411764706</v>
+        <v>4.099138161929134</v>
       </c>
       <c r="AK11" t="n">
-        <v>19.4205712033065</v>
+        <v>18.43084630573922</v>
       </c>
       <c r="AL11" t="n">
-        <v>18.38235294117647</v>
+        <v>17.4217639632936</v>
       </c>
       <c r="AM11" t="n">
-        <v>8.147058823529411</v>
+        <v>7.72798981991236</v>
       </c>
       <c r="AN11" t="n">
-        <v>29.47749194433018</v>
+        <v>27.96024276955468</v>
       </c>
     </row>
     <row r="12">
@@ -1882,121 +1882,121 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>16.19444444444444</v>
+        <v>15.62573613006232</v>
       </c>
       <c r="C12" t="n">
-        <v>3.472222222222222</v>
+        <v>3.316146488181437</v>
       </c>
       <c r="D12" t="n">
-        <v>12.72222222222222</v>
+        <v>12.30958964188088</v>
       </c>
       <c r="E12" t="n">
-        <v>46.71084498371998</v>
+        <v>45.7904767772436</v>
       </c>
       <c r="F12" t="n">
-        <v>41.0166774013024</v>
+        <v>40.19181345791095</v>
       </c>
       <c r="G12" t="n">
-        <v>13.72222222222222</v>
+        <v>13.21954944631</v>
       </c>
       <c r="H12" t="n">
-        <v>10.83333333333333</v>
+        <v>10.47501919012777</v>
       </c>
       <c r="I12" t="n">
-        <v>1.611111111111111</v>
+        <v>1.535011011109519</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.7461940690092879</v>
       </c>
       <c r="K12" t="n">
-        <v>4.967687728937729</v>
+        <v>4.827695895900664</v>
       </c>
       <c r="L12" t="n">
-        <v>2.972222222222222</v>
+        <v>2.836988498086218</v>
       </c>
       <c r="M12" t="n">
-        <v>1.555555555555556</v>
+        <v>1.500783422855531</v>
       </c>
       <c r="N12" t="n">
-        <v>8.712032763532765</v>
+        <v>8.563276707477193</v>
       </c>
       <c r="O12" t="n">
-        <v>92</v>
+        <v>89.1371580776147</v>
       </c>
       <c r="P12" t="n">
-        <v>22.30555555555556</v>
+        <v>21.5455821272251</v>
       </c>
       <c r="Q12" t="n">
-        <v>69.69444444444444</v>
+        <v>67.5915759503896</v>
       </c>
       <c r="R12" t="n">
-        <v>68.77357829670331</v>
+        <v>67.77702741109287</v>
       </c>
       <c r="S12" t="n">
-        <v>68.26353988603988</v>
+        <v>67.06240119929802</v>
       </c>
       <c r="T12" t="n">
-        <v>76.58333333333333</v>
+        <v>74.35849154587386</v>
       </c>
       <c r="U12" t="n">
-        <v>59.05555555555556</v>
+        <v>57.352820377374</v>
       </c>
       <c r="V12" t="n">
-        <v>6.166666666666667</v>
+        <v>6.02662932961335</v>
       </c>
       <c r="W12" t="n">
-        <v>3</v>
+        <v>2.920962380153686</v>
       </c>
       <c r="X12" t="n">
-        <v>15.33212293956044</v>
+        <v>15.23185302464423</v>
       </c>
       <c r="Y12" t="n">
-        <v>20.13888888888889</v>
+        <v>19.61698231061488</v>
       </c>
       <c r="Z12" t="n">
-        <v>10.38888888888889</v>
+        <v>10.04971318632936</v>
       </c>
       <c r="AA12" t="n">
-        <v>34.62746881359381</v>
+        <v>33.81325008329586</v>
       </c>
       <c r="AB12" t="n">
-        <v>119.25</v>
+        <v>115.0995152230242</v>
       </c>
       <c r="AC12" t="n">
-        <v>33.08333333333334</v>
+        <v>31.88969037820491</v>
       </c>
       <c r="AD12" t="n">
-        <v>86.16666666666667</v>
+        <v>83.20982484481929</v>
       </c>
       <c r="AE12" t="n">
-        <v>68.02654100529099</v>
+        <v>67.1927153237892</v>
       </c>
       <c r="AF12" t="n">
-        <v>67.9362428011803</v>
+        <v>66.87931791522199</v>
       </c>
       <c r="AG12" t="n">
-        <v>76.86111111111111</v>
+        <v>74.38933594020781</v>
       </c>
       <c r="AH12" t="n">
-        <v>58.36111111111111</v>
+        <v>56.43668837760781</v>
       </c>
       <c r="AI12" t="n">
-        <v>8.833333333333334</v>
+        <v>8.547529936765779</v>
       </c>
       <c r="AJ12" t="n">
-        <v>4.5</v>
+        <v>4.348226789721378</v>
       </c>
       <c r="AK12" t="n">
-        <v>18.94135475172975</v>
+        <v>18.45162520058764</v>
       </c>
       <c r="AL12" t="n">
-        <v>18.80555555555556</v>
+        <v>18.17450454306232</v>
       </c>
       <c r="AM12" t="n">
-        <v>9.333333333333334</v>
+        <v>9.009204986445146</v>
       </c>
       <c r="AN12" t="n">
-        <v>32.87162726393976</v>
+        <v>32.17616262657471</v>
       </c>
     </row>
     <row r="13">
@@ -2006,121 +2006,121 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>21.83783783783784</v>
+        <v>20.78143331315542</v>
       </c>
       <c r="C13" t="n">
-        <v>4.513513513513513</v>
+        <v>4.286718916061063</v>
       </c>
       <c r="D13" t="n">
-        <v>17.32432432432432</v>
+        <v>16.49471439709436</v>
       </c>
       <c r="E13" t="n">
-        <v>55.14459094959095</v>
+        <v>53.60833054603297</v>
       </c>
       <c r="F13" t="n">
-        <v>51.97807417357417</v>
+        <v>50.55436859484064</v>
       </c>
       <c r="G13" t="n">
-        <v>18.27027027027027</v>
+        <v>17.39582100190698</v>
       </c>
       <c r="H13" t="n">
-        <v>14.81081081081081</v>
+        <v>14.10394436208</v>
       </c>
       <c r="I13" t="n">
-        <v>2.378378378378379</v>
+        <v>2.253722774321588</v>
       </c>
       <c r="J13" t="n">
-        <v>1.297297297297297</v>
+        <v>1.224659350590587</v>
       </c>
       <c r="K13" t="n">
-        <v>7.645777645777646</v>
+        <v>7.219097087066665</v>
       </c>
       <c r="L13" t="n">
-        <v>3.54054054054054</v>
+        <v>3.363678654725909</v>
       </c>
       <c r="M13" t="n">
-        <v>1.810810810810811</v>
+        <v>1.71861887962126</v>
       </c>
       <c r="N13" t="n">
-        <v>10.8708928008928</v>
+        <v>10.33942744192887</v>
       </c>
       <c r="O13" t="n">
-        <v>95.18918918918919</v>
+        <v>91.81714039653572</v>
       </c>
       <c r="P13" t="n">
-        <v>20.72972972972973</v>
+        <v>19.93323916262729</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.45945945945945</v>
+        <v>71.88390123390842</v>
       </c>
       <c r="R13" t="n">
-        <v>71.72338406188406</v>
+        <v>72.42963415631492</v>
       </c>
       <c r="S13" t="n">
-        <v>71.83899296649297</v>
+        <v>72.4334796522318</v>
       </c>
       <c r="T13" t="n">
-        <v>78.13513513513513</v>
+        <v>75.4315215011798</v>
       </c>
       <c r="U13" t="n">
-        <v>62.75675675675676</v>
+        <v>60.57114140538403</v>
       </c>
       <c r="V13" t="n">
-        <v>6.027027027027027</v>
+        <v>5.872371178646561</v>
       </c>
       <c r="W13" t="n">
-        <v>2.891891891891892</v>
+        <v>2.800520480582247</v>
       </c>
       <c r="X13" t="n">
-        <v>15.35362063612064</v>
+        <v>15.21353205227352</v>
       </c>
       <c r="Y13" t="n">
-        <v>16.32432432432432</v>
+        <v>15.7209557213435</v>
       </c>
       <c r="Z13" t="n">
-        <v>8.513513513513514</v>
+        <v>8.190951144473905</v>
       </c>
       <c r="AA13" t="n">
-        <v>30.84859077409077</v>
+        <v>30.95026959643332</v>
       </c>
       <c r="AB13" t="n">
-        <v>130.9189189189189</v>
+        <v>125.8211216864147</v>
       </c>
       <c r="AC13" t="n">
-        <v>36.08108108108108</v>
+        <v>34.62170846670077</v>
       </c>
       <c r="AD13" t="n">
-        <v>94.83783783783784</v>
+        <v>91.19941321971397</v>
       </c>
       <c r="AE13" t="n">
-        <v>69.34570449370449</v>
+        <v>69.52279668109504</v>
       </c>
       <c r="AF13" t="n">
-        <v>71.86459255159255</v>
+        <v>72.24606445522673</v>
       </c>
       <c r="AG13" t="n">
-        <v>84.51351351351352</v>
+        <v>81.35555007716842</v>
       </c>
       <c r="AH13" t="n">
-        <v>64.43243243243244</v>
+        <v>62.1286136892029</v>
       </c>
       <c r="AI13" t="n">
-        <v>9.405405405405405</v>
+        <v>9.073309669243347</v>
       </c>
       <c r="AJ13" t="n">
-        <v>4.918918918918919</v>
+        <v>4.724381406267187</v>
       </c>
       <c r="AK13" t="n">
-        <v>21.18172384372384</v>
+        <v>20.78973990226403</v>
       </c>
       <c r="AL13" t="n">
-        <v>18.72972972972973</v>
+        <v>17.98686366341124</v>
       </c>
       <c r="AM13" t="n">
-        <v>8.891891891891891</v>
+        <v>8.551186278334404</v>
       </c>
       <c r="AN13" t="n">
-        <v>31.27110654210654</v>
+        <v>30.99584111168773</v>
       </c>
     </row>
     <row r="14">
@@ -2130,121 +2130,121 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>17.44736842105263</v>
+        <v>16.47532615144475</v>
       </c>
       <c r="C14" t="n">
-        <v>3.842105263157895</v>
+        <v>3.626555921957087</v>
       </c>
       <c r="D14" t="n">
-        <v>13.60526315789474</v>
+        <v>12.84877022948766</v>
       </c>
       <c r="E14" t="n">
-        <v>46.6733653802338</v>
+        <v>43.99385441805814</v>
       </c>
       <c r="F14" t="n">
-        <v>43.45507321625742</v>
+        <v>40.96892474371631</v>
       </c>
       <c r="G14" t="n">
-        <v>14.52631578947368</v>
+        <v>13.72154218086979</v>
       </c>
       <c r="H14" t="n">
-        <v>11.60526315789474</v>
+        <v>10.95847927595862</v>
       </c>
       <c r="I14" t="n">
-        <v>1.5</v>
+        <v>1.413732532267848</v>
       </c>
       <c r="J14" t="n">
-        <v>0.7105263157894737</v>
+        <v>0.6734456725473976</v>
       </c>
       <c r="K14" t="n">
-        <v>4.722733406943934</v>
+        <v>4.486489092585835</v>
       </c>
       <c r="L14" t="n">
-        <v>2.526315789473684</v>
+        <v>2.385132385806279</v>
       </c>
       <c r="M14" t="n">
-        <v>1.236842105263158</v>
+        <v>1.171651083227988</v>
       </c>
       <c r="N14" t="n">
-        <v>7.435775645407224</v>
+        <v>7.066424497834426</v>
       </c>
       <c r="O14" t="n">
-        <v>95.76315789473684</v>
+        <v>90.14308275406586</v>
       </c>
       <c r="P14" t="n">
-        <v>21.44736842105263</v>
+        <v>20.19982241728913</v>
       </c>
       <c r="Q14" t="n">
-        <v>74.31578947368421</v>
+        <v>69.94326033677672</v>
       </c>
       <c r="R14" t="n">
-        <v>70.3967357554726</v>
+        <v>66.30840965096776</v>
       </c>
       <c r="S14" t="n">
-        <v>70.275832895175</v>
+        <v>66.20086345585979</v>
       </c>
       <c r="T14" t="n">
-        <v>78.92105263157895</v>
+        <v>74.27079182216434</v>
       </c>
       <c r="U14" t="n">
-        <v>63.07894736842105</v>
+        <v>59.35442001574837</v>
       </c>
       <c r="V14" t="n">
-        <v>6.894736842105263</v>
+        <v>6.483987972707322</v>
       </c>
       <c r="W14" t="n">
-        <v>3.710526315789474</v>
+        <v>3.485431144007787</v>
       </c>
       <c r="X14" t="n">
-        <v>17.32191874791875</v>
+        <v>16.28548737511022</v>
       </c>
       <c r="Y14" t="n">
-        <v>17.07894736842105</v>
+        <v>16.05678023021605</v>
       </c>
       <c r="Z14" t="n">
-        <v>8.5</v>
+        <v>7.981233873218312</v>
       </c>
       <c r="AA14" t="n">
-        <v>29.14574638519376</v>
+        <v>27.37720109771536</v>
       </c>
       <c r="AB14" t="n">
-        <v>122.3157894736842</v>
+        <v>115.082938586748</v>
       </c>
       <c r="AC14" t="n">
-        <v>31.92105263157895</v>
+        <v>30.01323340194575</v>
       </c>
       <c r="AD14" t="n">
-        <v>90.39473684210526</v>
+        <v>85.06970518480227</v>
       </c>
       <c r="AE14" t="n">
-        <v>67.73931419457735</v>
+        <v>63.749992389921</v>
       </c>
       <c r="AF14" t="n">
-        <v>70.35102388839231</v>
+        <v>66.27042915604542</v>
       </c>
       <c r="AG14" t="n">
-        <v>81.34210526315789</v>
+        <v>76.52284146229965</v>
       </c>
       <c r="AH14" t="n">
-        <v>64.18421052631579</v>
+        <v>60.40498873359221</v>
       </c>
       <c r="AI14" t="n">
-        <v>8.184210526315789</v>
+        <v>7.702283582394373</v>
       </c>
       <c r="AJ14" t="n">
-        <v>4.631578947368421</v>
+        <v>4.348231338394977</v>
       </c>
       <c r="AK14" t="n">
-        <v>19.33779251450304</v>
+        <v>18.20177654482177</v>
       </c>
       <c r="AL14" t="n">
-        <v>16.26315789473684</v>
+        <v>15.25703752973386</v>
       </c>
       <c r="AM14" t="n">
-        <v>8</v>
+        <v>7.502413274954276</v>
       </c>
       <c r="AN14" t="n">
-        <v>30.04160466726256</v>
+        <v>28.26211655630916</v>
       </c>
     </row>
     <row r="15">
@@ -2254,121 +2254,121 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>15.78787878787879</v>
+        <v>15.22143415608569</v>
       </c>
       <c r="C15" t="n">
-        <v>3.272727272727273</v>
+        <v>3.166914353310153</v>
       </c>
       <c r="D15" t="n">
-        <v>12.51515151515152</v>
+        <v>12.05451980277554</v>
       </c>
       <c r="E15" t="n">
-        <v>44.67370419311329</v>
+        <v>43.7167973814911</v>
       </c>
       <c r="F15" t="n">
-        <v>38.97908228471864</v>
+        <v>38.24273504471201</v>
       </c>
       <c r="G15" t="n">
-        <v>13.12121212121212</v>
+        <v>12.68402738026182</v>
       </c>
       <c r="H15" t="n">
-        <v>10.3030303030303</v>
+        <v>9.940544946064422</v>
       </c>
       <c r="I15" t="n">
-        <v>1.818181818181818</v>
+        <v>1.775292750195656</v>
       </c>
       <c r="J15" t="n">
-        <v>0.8787878787878788</v>
+        <v>0.8867416745520592</v>
       </c>
       <c r="K15" t="n">
-        <v>6.165718607991336</v>
+        <v>6.433745111310022</v>
       </c>
       <c r="L15" t="n">
-        <v>3.03030303030303</v>
+        <v>2.94307921543724</v>
       </c>
       <c r="M15" t="n">
-        <v>1.515151515151515</v>
+        <v>1.471365399956517</v>
       </c>
       <c r="N15" t="n">
-        <v>9.371437545619363</v>
+        <v>9.211197698125781</v>
       </c>
       <c r="O15" t="n">
-        <v>81.15151515151516</v>
+        <v>77.77683360487589</v>
       </c>
       <c r="P15" t="n">
-        <v>18.72727272727273</v>
+        <v>17.9256706108341</v>
       </c>
       <c r="Q15" t="n">
-        <v>62.42424242424242</v>
+        <v>59.85116299404179</v>
       </c>
       <c r="R15" t="n">
-        <v>66.42392908522453</v>
+        <v>65.57051783363083</v>
       </c>
       <c r="S15" t="n">
-        <v>65.58751695274422</v>
+        <v>64.34211444986951</v>
       </c>
       <c r="T15" t="n">
-        <v>65.54545454545455</v>
+        <v>62.80920872603785</v>
       </c>
       <c r="U15" t="n">
-        <v>52.06060606060606</v>
+        <v>49.85883995354285</v>
       </c>
       <c r="V15" t="n">
-        <v>4.484848484848484</v>
+        <v>4.32111225064604</v>
       </c>
       <c r="W15" t="n">
-        <v>1.818181818181818</v>
+        <v>1.770800798901676</v>
       </c>
       <c r="X15" t="n">
-        <v>10.67449132685496</v>
+        <v>10.56957509659715</v>
       </c>
       <c r="Y15" t="n">
-        <v>15.09090909090909</v>
+        <v>14.49722823024984</v>
       </c>
       <c r="Z15" t="n">
-        <v>7.757575757575758</v>
+        <v>7.428022611497391</v>
       </c>
       <c r="AA15" t="n">
-        <v>28.24679868952596</v>
+        <v>27.38120038938326</v>
       </c>
       <c r="AB15" t="n">
-        <v>110</v>
+        <v>105.453522734223</v>
       </c>
       <c r="AC15" t="n">
-        <v>29.81818181818182</v>
+        <v>28.67094945828276</v>
       </c>
       <c r="AD15" t="n">
-        <v>80.18181818181819</v>
+        <v>76.78257327594025</v>
       </c>
       <c r="AE15" t="n">
-        <v>65.48132433475615</v>
+        <v>63.826278021802</v>
       </c>
       <c r="AF15" t="n">
-        <v>65.28971202450748</v>
+        <v>63.47327092013717</v>
       </c>
       <c r="AG15" t="n">
-        <v>70.75757575757575</v>
+        <v>67.92362846210868</v>
       </c>
       <c r="AH15" t="n">
-        <v>54.42424242424242</v>
+        <v>52.14354298264917</v>
       </c>
       <c r="AI15" t="n">
-        <v>6.242424242424242</v>
+        <v>6.12754784265922</v>
       </c>
       <c r="AJ15" t="n">
-        <v>3.242424242424242</v>
+        <v>3.188608761496579</v>
       </c>
       <c r="AK15" t="n">
-        <v>17.18332755880483</v>
+        <v>16.75090546232463</v>
       </c>
       <c r="AL15" t="n">
-        <v>17.45454545454545</v>
+        <v>16.90777032170891</v>
       </c>
       <c r="AM15" t="n">
-        <v>8.303030303030303</v>
+        <v>7.970020114279169</v>
       </c>
       <c r="AN15" t="n">
-        <v>29.70912038550675</v>
+        <v>28.77734496943215</v>
       </c>
     </row>
     <row r="16">
@@ -2378,121 +2378,121 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>15.54545454545454</v>
+        <v>15.01748422973128</v>
       </c>
       <c r="C16" t="n">
-        <v>3.606060606060606</v>
+        <v>3.494066890556472</v>
       </c>
       <c r="D16" t="n">
-        <v>11.93939393939394</v>
+        <v>11.52341733917481</v>
       </c>
       <c r="E16" t="n">
-        <v>44.3159639653276</v>
+        <v>43.20679479785363</v>
       </c>
       <c r="F16" t="n">
-        <v>40.57181463486009</v>
+        <v>39.45490574814622</v>
       </c>
       <c r="G16" t="n">
-        <v>13.03030303030303</v>
+        <v>12.5785710293851</v>
       </c>
       <c r="H16" t="n">
-        <v>10.21212121212121</v>
+        <v>9.834662833576553</v>
       </c>
       <c r="I16" t="n">
-        <v>1.787878787878788</v>
+        <v>1.747975028833902</v>
       </c>
       <c r="J16" t="n">
-        <v>1.060606060606061</v>
+        <v>1.051724098667222</v>
       </c>
       <c r="K16" t="n">
-        <v>7.281859554586828</v>
+        <v>7.459349384632871</v>
       </c>
       <c r="L16" t="n">
-        <v>2.96969696969697</v>
+        <v>2.894693878401316</v>
       </c>
       <c r="M16" t="n">
-        <v>1.515151515151515</v>
+        <v>1.479778419157563</v>
       </c>
       <c r="N16" t="n">
-        <v>9.794909282636555</v>
+        <v>9.679658715957922</v>
       </c>
       <c r="O16" t="n">
-        <v>79.78787878787878</v>
+        <v>77.39288774787707</v>
       </c>
       <c r="P16" t="n">
-        <v>18.42424242424243</v>
+        <v>17.93571640216572</v>
       </c>
       <c r="Q16" t="n">
-        <v>61.36363636363637</v>
+        <v>59.45717134571134</v>
       </c>
       <c r="R16" t="n">
-        <v>68.47979730875184</v>
+        <v>67.28886290704089</v>
       </c>
       <c r="S16" t="n">
-        <v>67.94985269276178</v>
+        <v>66.78918566596136</v>
       </c>
       <c r="T16" t="n">
-        <v>65.18181818181819</v>
+        <v>63.24532057526447</v>
       </c>
       <c r="U16" t="n">
-        <v>51.63636363636363</v>
+        <v>50.04331540554893</v>
       </c>
       <c r="V16" t="n">
-        <v>5.606060606060606</v>
+        <v>5.417433564884702</v>
       </c>
       <c r="W16" t="n">
-        <v>2.939393939393939</v>
+        <v>2.825487037431735</v>
       </c>
       <c r="X16" t="n">
-        <v>15.1693164814983</v>
+        <v>14.65875427345757</v>
       </c>
       <c r="Y16" t="n">
-        <v>15.39393939393939</v>
+        <v>14.96633967491799</v>
       </c>
       <c r="Z16" t="n">
-        <v>7.757575757575758</v>
+        <v>7.511817599706222</v>
       </c>
       <c r="AA16" t="n">
-        <v>31.8220051060051</v>
+        <v>31.2011784453679</v>
       </c>
       <c r="AB16" t="n">
-        <v>107.1818181818182</v>
+        <v>103.5803102156773</v>
       </c>
       <c r="AC16" t="n">
-        <v>31.39393939393939</v>
+        <v>30.2939377465949</v>
       </c>
       <c r="AD16" t="n">
-        <v>75.78787878787878</v>
+        <v>73.28637246908238</v>
       </c>
       <c r="AE16" t="n">
-        <v>68.40090018567291</v>
+        <v>67.23470389020424</v>
       </c>
       <c r="AF16" t="n">
-        <v>69.12883251092342</v>
+        <v>67.89370409845614</v>
       </c>
       <c r="AG16" t="n">
-        <v>69.12121212121212</v>
+        <v>66.82763085396923</v>
       </c>
       <c r="AH16" t="n">
-        <v>51.21212121212121</v>
+        <v>49.52870722955191</v>
       </c>
       <c r="AI16" t="n">
-        <v>7.515151515151516</v>
+        <v>7.265028527282538</v>
       </c>
       <c r="AJ16" t="n">
-        <v>3.787878787878788</v>
+        <v>3.669968752587079</v>
       </c>
       <c r="AK16" t="n">
-        <v>19.60716789775881</v>
+        <v>19.0283844067779</v>
       </c>
       <c r="AL16" t="n">
-        <v>17.96969696969697</v>
+        <v>17.36408097397537</v>
       </c>
       <c r="AM16" t="n">
-        <v>8.090909090909092</v>
+        <v>7.791918094506521</v>
       </c>
       <c r="AN16" t="n">
-        <v>28.57390052371871</v>
+        <v>27.89132078938194</v>
       </c>
     </row>
     <row r="17">
@@ -2502,121 +2502,121 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>16.74285714285714</v>
+        <v>15.82245141196672</v>
       </c>
       <c r="C17" t="n">
-        <v>3.914285714285714</v>
+        <v>3.69991588135506</v>
       </c>
       <c r="D17" t="n">
-        <v>12.82857142857143</v>
+        <v>12.12253553061166</v>
       </c>
       <c r="E17" t="n">
-        <v>45.73274201988487</v>
+        <v>43.2743951170203</v>
       </c>
       <c r="F17" t="n">
-        <v>42.76977132391418</v>
+        <v>40.4617459156865</v>
       </c>
       <c r="G17" t="n">
-        <v>13.45714285714286</v>
+        <v>12.71671344134297</v>
       </c>
       <c r="H17" t="n">
-        <v>10.77142857142857</v>
+        <v>10.17929978902975</v>
       </c>
       <c r="I17" t="n">
-        <v>1.4</v>
+        <v>1.320589581494891</v>
       </c>
       <c r="J17" t="n">
-        <v>0.8</v>
+        <v>0.7561648967123682</v>
       </c>
       <c r="K17" t="n">
-        <v>5.323914181057039</v>
+        <v>5.031835916978006</v>
       </c>
       <c r="L17" t="n">
-        <v>3.371428571428571</v>
+        <v>3.18149788879789</v>
       </c>
       <c r="M17" t="n">
-        <v>1.714285714285714</v>
+        <v>1.616630860674152</v>
       </c>
       <c r="N17" t="n">
-        <v>11.42910204081633</v>
+        <v>10.78765508022026</v>
       </c>
       <c r="O17" t="n">
-        <v>87.62857142857143</v>
+        <v>82.83387170982311</v>
       </c>
       <c r="P17" t="n">
-        <v>22.45714285714286</v>
+        <v>21.2088780809837</v>
       </c>
       <c r="Q17" t="n">
-        <v>65.17142857142858</v>
+        <v>61.62499362883942</v>
       </c>
       <c r="R17" t="n">
-        <v>67.22816007326007</v>
+        <v>63.56574631390766</v>
       </c>
       <c r="S17" t="n">
-        <v>67.7445098901099</v>
+        <v>64.03472478996154</v>
       </c>
       <c r="T17" t="n">
-        <v>73.08571428571429</v>
+        <v>69.08053335660965</v>
       </c>
       <c r="U17" t="n">
-        <v>56.17142857142857</v>
+        <v>53.10616144857774</v>
       </c>
       <c r="V17" t="n">
-        <v>5.142857142857143</v>
+        <v>4.861972638624126</v>
       </c>
       <c r="W17" t="n">
-        <v>2.514285714285714</v>
+        <v>2.378123491064255</v>
       </c>
       <c r="X17" t="n">
-        <v>13.03813490319205</v>
+        <v>12.3406746934309</v>
       </c>
       <c r="Y17" t="n">
-        <v>18.48571428571428</v>
+        <v>17.45562584159708</v>
       </c>
       <c r="Z17" t="n">
-        <v>8.6</v>
+        <v>8.122540114584856</v>
       </c>
       <c r="AA17" t="n">
-        <v>30.21985970695971</v>
+        <v>28.58088080105871</v>
       </c>
       <c r="AB17" t="n">
-        <v>117.2285714285714</v>
+        <v>110.8078088765911</v>
       </c>
       <c r="AC17" t="n">
-        <v>35.42857142857143</v>
+        <v>33.45414222689685</v>
       </c>
       <c r="AD17" t="n">
-        <v>81.8</v>
+        <v>77.35366664969428</v>
       </c>
       <c r="AE17" t="n">
-        <v>66.16082286760859</v>
+        <v>62.55136060799985</v>
       </c>
       <c r="AF17" t="n">
-        <v>66.2035440607012</v>
+        <v>62.57216853646855</v>
       </c>
       <c r="AG17" t="n">
-        <v>72.11428571428571</v>
+        <v>68.13826658904344</v>
       </c>
       <c r="AH17" t="n">
-        <v>52.74285714285714</v>
+        <v>49.84407175558893</v>
       </c>
       <c r="AI17" t="n">
-        <v>7.171428571428572</v>
+        <v>6.775526719482741</v>
       </c>
       <c r="AJ17" t="n">
-        <v>3.4</v>
+        <v>3.21204082646083</v>
       </c>
       <c r="AK17" t="n">
-        <v>15.75512140240712</v>
+        <v>14.85787230187566</v>
       </c>
       <c r="AL17" t="n">
-        <v>19.71428571428572</v>
+        <v>18.59278464785438</v>
       </c>
       <c r="AM17" t="n">
-        <v>9.314285714285715</v>
+        <v>8.7751614609695</v>
       </c>
       <c r="AN17" t="n">
-        <v>33.92207053898483</v>
+        <v>32.00109285053366</v>
       </c>
     </row>
     <row r="18">
@@ -2626,121 +2626,121 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>15.91176470588235</v>
+        <v>15.63296251923897</v>
       </c>
       <c r="C18" t="n">
-        <v>4.529411764705882</v>
+        <v>4.452822535006766</v>
       </c>
       <c r="D18" t="n">
-        <v>11.38235294117647</v>
+        <v>11.18013998423221</v>
       </c>
       <c r="E18" t="n">
-        <v>38.65971590174531</v>
+        <v>39.02802526527248</v>
       </c>
       <c r="F18" t="n">
-        <v>35.90740390002155</v>
+        <v>36.19713630984626</v>
       </c>
       <c r="G18" t="n">
-        <v>12.64705882352941</v>
+        <v>12.46921353138799</v>
       </c>
       <c r="H18" t="n">
-        <v>9.352941176470589</v>
+        <v>9.221248092312555</v>
       </c>
       <c r="I18" t="n">
-        <v>1.970588235294118</v>
+        <v>1.911303761742285</v>
       </c>
       <c r="J18" t="n">
-        <v>1.029411764705882</v>
+        <v>1.006063896501542</v>
       </c>
       <c r="K18" t="n">
-        <v>6.273170114199526</v>
+        <v>6.277083825884198</v>
       </c>
       <c r="L18" t="n">
-        <v>3.882352941176471</v>
+        <v>3.776752541988117</v>
       </c>
       <c r="M18" t="n">
-        <v>1.911764705882353</v>
+        <v>1.857412815653377</v>
       </c>
       <c r="N18" t="n">
-        <v>10.7719241542771</v>
+        <v>10.75657522380932</v>
       </c>
       <c r="O18" t="n">
-        <v>83.94117647058823</v>
+        <v>82.58895614038231</v>
       </c>
       <c r="P18" t="n">
-        <v>24.17647058823529</v>
+        <v>23.74895712752945</v>
       </c>
       <c r="Q18" t="n">
-        <v>59.76470588235294</v>
+        <v>58.83999901285285</v>
       </c>
       <c r="R18" t="n">
-        <v>63.61302184335273</v>
+        <v>63.5514779195827</v>
       </c>
       <c r="S18" t="n">
-        <v>62.81668996444732</v>
+        <v>62.40707135024284</v>
       </c>
       <c r="T18" t="n">
-        <v>67.29411764705883</v>
+        <v>66.27412053151124</v>
       </c>
       <c r="U18" t="n">
-        <v>49.58823529411764</v>
+        <v>48.87930462878744</v>
       </c>
       <c r="V18" t="n">
-        <v>5.970588235294118</v>
+        <v>5.818565948298139</v>
       </c>
       <c r="W18" t="n">
-        <v>2.441176470588236</v>
+        <v>2.345608188379831</v>
       </c>
       <c r="X18" t="n">
-        <v>12.05726055806938</v>
+        <v>11.77170132321475</v>
       </c>
       <c r="Y18" t="n">
-        <v>17.17647058823529</v>
+        <v>16.80598234818742</v>
       </c>
       <c r="Z18" t="n">
-        <v>7.823529411764706</v>
+        <v>7.638010346143587</v>
       </c>
       <c r="AA18" t="n">
-        <v>27.26802063132945</v>
+        <v>27.00485365033244</v>
       </c>
       <c r="AB18" t="n">
-        <v>118.0882352941177</v>
+        <v>115.0915134635056</v>
       </c>
       <c r="AC18" t="n">
-        <v>38.64705882352941</v>
+        <v>37.59112842312931</v>
       </c>
       <c r="AD18" t="n">
-        <v>79.44117647058823</v>
+        <v>77.50038504037626</v>
       </c>
       <c r="AE18" t="n">
-        <v>63.28553288623142</v>
+        <v>63.53180558487152</v>
       </c>
       <c r="AF18" t="n">
-        <v>62.99198144257703</v>
+        <v>63.44983016353304</v>
       </c>
       <c r="AG18" t="n">
-        <v>77.41176470588235</v>
+        <v>75.69285461045457</v>
       </c>
       <c r="AH18" t="n">
-        <v>54.79411764705883</v>
+        <v>53.69254376391826</v>
       </c>
       <c r="AI18" t="n">
-        <v>7.764705882352941</v>
+        <v>7.534053095449018</v>
       </c>
       <c r="AJ18" t="n">
-        <v>3.294117647058823</v>
+        <v>3.236424866860678</v>
       </c>
       <c r="AK18" t="n">
-        <v>17.28037998276234</v>
+        <v>17.57433331632207</v>
       </c>
       <c r="AL18" t="n">
-        <v>19.91176470588235</v>
+        <v>19.37757385687885</v>
       </c>
       <c r="AM18" t="n">
-        <v>8.323529411764707</v>
+        <v>8.162807187776034</v>
       </c>
       <c r="AN18" t="n">
-        <v>29.28901642964878</v>
+        <v>29.62326091442364</v>
       </c>
     </row>
     <row r="19">
@@ -2750,121 +2750,121 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>18.24324324324324</v>
+        <v>17.36473397197435</v>
       </c>
       <c r="C19" t="n">
-        <v>4.189189189189189</v>
+        <v>3.969414392067928</v>
       </c>
       <c r="D19" t="n">
-        <v>14.05405405405405</v>
+        <v>13.39531957990642</v>
       </c>
       <c r="E19" t="n">
-        <v>46.09322482922483</v>
+        <v>44.72542342980562</v>
       </c>
       <c r="F19" t="n">
-        <v>43.8854401049401</v>
+        <v>42.34672896368645</v>
       </c>
       <c r="G19" t="n">
-        <v>15.24324324324324</v>
+        <v>14.49032820011507</v>
       </c>
       <c r="H19" t="n">
-        <v>12.05405405405405</v>
+        <v>11.46002346762952</v>
       </c>
       <c r="I19" t="n">
-        <v>1.648648648648649</v>
+        <v>1.587443753184316</v>
       </c>
       <c r="J19" t="n">
-        <v>0.8648648648648649</v>
+        <v>0.8174240484391829</v>
       </c>
       <c r="K19" t="n">
-        <v>5.259539253539254</v>
+        <v>4.968620966542083</v>
       </c>
       <c r="L19" t="n">
-        <v>2.972972972972973</v>
+        <v>2.832201673058751</v>
       </c>
       <c r="M19" t="n">
-        <v>1.432432432432432</v>
+        <v>1.350229094139668</v>
       </c>
       <c r="N19" t="n">
-        <v>7.964221958221959</v>
+        <v>7.504750008977322</v>
       </c>
       <c r="O19" t="n">
-        <v>94.5945945945946</v>
+        <v>89.97787250610968</v>
       </c>
       <c r="P19" t="n">
-        <v>22.32432432432432</v>
+        <v>21.12766177863611</v>
       </c>
       <c r="Q19" t="n">
-        <v>72.27027027027027</v>
+        <v>68.85021072747355</v>
       </c>
       <c r="R19" t="n">
-        <v>69.65095262845263</v>
+        <v>67.76866027130647</v>
       </c>
       <c r="S19" t="n">
-        <v>69.84670497970498</v>
+        <v>68.04726114896843</v>
       </c>
       <c r="T19" t="n">
-        <v>77.5945945945946</v>
+        <v>73.7802028454832</v>
       </c>
       <c r="U19" t="n">
-        <v>61.05405405405406</v>
+        <v>58.15712902647418</v>
       </c>
       <c r="V19" t="n">
-        <v>6.243243243243243</v>
+        <v>5.986361816941772</v>
       </c>
       <c r="W19" t="n">
-        <v>3.135135135135135</v>
+        <v>3.031491142477481</v>
       </c>
       <c r="X19" t="n">
-        <v>15.15164845064845</v>
+        <v>14.62947431204977</v>
       </c>
       <c r="Y19" t="n">
-        <v>16.45945945945946</v>
+        <v>15.55152562370336</v>
       </c>
       <c r="Z19" t="n">
-        <v>7.972972972972973</v>
+        <v>7.542651911129198</v>
       </c>
       <c r="AA19" t="n">
-        <v>29.75059271359271</v>
+        <v>28.5121099161359</v>
       </c>
       <c r="AB19" t="n">
-        <v>115.4054054054054</v>
+        <v>109.5076640697316</v>
       </c>
       <c r="AC19" t="n">
-        <v>33.18918918918919</v>
+        <v>31.42737091393901</v>
       </c>
       <c r="AD19" t="n">
-        <v>82.21621621621621</v>
+        <v>78.08029315579256</v>
       </c>
       <c r="AE19" t="n">
-        <v>67.73341075141074</v>
+        <v>66.15039943857568</v>
       </c>
       <c r="AF19" t="n">
-        <v>69.81483882783883</v>
+        <v>68.2614581223884</v>
       </c>
       <c r="AG19" t="n">
-        <v>71.72972972972973</v>
+        <v>68.21334639556513</v>
       </c>
       <c r="AH19" t="n">
-        <v>54.64864864864865</v>
+        <v>52.00740156654386</v>
       </c>
       <c r="AI19" t="n">
-        <v>7.243243243243243</v>
+        <v>6.83288438383977</v>
       </c>
       <c r="AJ19" t="n">
-        <v>3.432432432432432</v>
+        <v>3.248348498566531</v>
       </c>
       <c r="AK19" t="n">
-        <v>16.90178546678547</v>
+        <v>16.33313764983091</v>
       </c>
       <c r="AL19" t="n">
-        <v>16.08108108108108</v>
+        <v>15.31768880984407</v>
       </c>
       <c r="AM19" t="n">
-        <v>7.405405405405405</v>
+        <v>7.072109324077838</v>
       </c>
       <c r="AN19" t="n">
-        <v>28.73150618750618</v>
+        <v>28.2371016063979</v>
       </c>
     </row>
     <row r="20">
@@ -2874,121 +2874,121 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>17</v>
+        <v>16.43363724118757</v>
       </c>
       <c r="C20" t="n">
-        <v>3.972972972972973</v>
+        <v>3.811180318047914</v>
       </c>
       <c r="D20" t="n">
-        <v>13.02702702702703</v>
+        <v>12.62245692313966</v>
       </c>
       <c r="E20" t="n">
-        <v>45.07600869850869</v>
+        <v>44.59581905165026</v>
       </c>
       <c r="F20" t="n">
-        <v>42.65242662742663</v>
+        <v>42.20481807343648</v>
       </c>
       <c r="G20" t="n">
-        <v>14.16216216216216</v>
+        <v>13.67696620339802</v>
       </c>
       <c r="H20" t="n">
-        <v>11.13513513513514</v>
+        <v>10.76670892958557</v>
       </c>
       <c r="I20" t="n">
-        <v>1.513513513513514</v>
+        <v>1.439906806285609</v>
       </c>
       <c r="J20" t="n">
-        <v>0.8108108108108109</v>
+        <v>0.7683244676281188</v>
       </c>
       <c r="K20" t="n">
-        <v>5.196515196515197</v>
+        <v>4.921645989596265</v>
       </c>
       <c r="L20" t="n">
-        <v>2.918918918918919</v>
+        <v>2.798860667829087</v>
       </c>
       <c r="M20" t="n">
-        <v>1.513513513513514</v>
+        <v>1.435808501035014</v>
       </c>
       <c r="N20" t="n">
-        <v>8.516465498465498</v>
+        <v>8.087553949815723</v>
       </c>
       <c r="O20" t="n">
-        <v>87.89189189189189</v>
+        <v>84.9840288513812</v>
       </c>
       <c r="P20" t="n">
-        <v>20.02702702702703</v>
+        <v>19.30931293853668</v>
       </c>
       <c r="Q20" t="n">
-        <v>67.86486486486487</v>
+        <v>65.67471591284452</v>
       </c>
       <c r="R20" t="n">
-        <v>69.76389293814294</v>
+        <v>68.42693300305068</v>
       </c>
       <c r="S20" t="n">
-        <v>70.13268683568683</v>
+        <v>68.76033337652764</v>
       </c>
       <c r="T20" t="n">
-        <v>71.43243243243244</v>
+        <v>69.16682879433209</v>
       </c>
       <c r="U20" t="n">
-        <v>57.32432432432432</v>
+        <v>55.54689173436024</v>
       </c>
       <c r="V20" t="n">
-        <v>5</v>
+        <v>4.788639145304406</v>
       </c>
       <c r="W20" t="n">
-        <v>2.837837837837838</v>
+        <v>2.740283235506395</v>
       </c>
       <c r="X20" t="n">
-        <v>15.53569498069498</v>
+        <v>15.39949438674213</v>
       </c>
       <c r="Y20" t="n">
-        <v>14.78378378378378</v>
+        <v>14.31884863755297</v>
       </c>
       <c r="Z20" t="n">
-        <v>7.189189189189189</v>
+        <v>6.98894597878629</v>
       </c>
       <c r="AA20" t="n">
-        <v>28.95390048015048</v>
+        <v>28.30605729981372</v>
       </c>
       <c r="AB20" t="n">
-        <v>114.945945945946</v>
+        <v>110.9620273615513</v>
       </c>
       <c r="AC20" t="n">
-        <v>30.37837837837838</v>
+        <v>29.50543077635158</v>
       </c>
       <c r="AD20" t="n">
-        <v>84.56756756756756</v>
+        <v>81.45659658519975</v>
       </c>
       <c r="AE20" t="n">
-        <v>69.09319261369261</v>
+        <v>67.55519875116792</v>
       </c>
       <c r="AF20" t="n">
-        <v>69.86643376218376</v>
+        <v>68.29121412835408</v>
       </c>
       <c r="AG20" t="n">
-        <v>74.27027027027027</v>
+        <v>71.78775750392344</v>
       </c>
       <c r="AH20" t="n">
-        <v>58.08108108108108</v>
+        <v>55.997333644406</v>
       </c>
       <c r="AI20" t="n">
-        <v>7.378378378378378</v>
+        <v>7.07143820226538</v>
       </c>
       <c r="AJ20" t="n">
-        <v>4.297297297297297</v>
+        <v>4.09593068992652</v>
       </c>
       <c r="AK20" t="n">
-        <v>20.39890533340533</v>
+        <v>19.72180476721777</v>
       </c>
       <c r="AL20" t="n">
-        <v>16.89189189189189</v>
+        <v>16.38058006073322</v>
       </c>
       <c r="AM20" t="n">
-        <v>8.756756756756756</v>
+        <v>8.388269301492002</v>
       </c>
       <c r="AN20" t="n">
-        <v>31.8078655938656</v>
+        <v>30.81692953961014</v>
       </c>
     </row>
     <row r="21">
@@ -2998,121 +2998,121 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>12.53333333333333</v>
+        <v>12.82383617852208</v>
       </c>
       <c r="C21" t="n">
-        <v>2.433333333333333</v>
+        <v>2.51995960069552</v>
       </c>
       <c r="D21" t="n">
-        <v>10.1</v>
+        <v>10.30387657782656</v>
       </c>
       <c r="E21" t="n">
-        <v>42.00399044936545</v>
+        <v>46.56564919880227</v>
       </c>
       <c r="F21" t="n">
-        <v>39.13386795334295</v>
+        <v>43.91869096342514</v>
       </c>
       <c r="G21" t="n">
-        <v>10.63333333333333</v>
+        <v>10.81165771892632</v>
       </c>
       <c r="H21" t="n">
-        <v>8.699999999999999</v>
+        <v>8.833051391785894</v>
       </c>
       <c r="I21" t="n">
-        <v>1.366666666666667</v>
+        <v>1.439396877008131</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7666666666666667</v>
+        <v>0.869101927770588</v>
       </c>
       <c r="K21" t="n">
-        <v>6.603008103008103</v>
+        <v>8.62803602711125</v>
       </c>
       <c r="L21" t="n">
-        <v>2.1</v>
+        <v>2.104960623294938</v>
       </c>
       <c r="M21" t="n">
-        <v>0.9</v>
+        <v>0.900576901709645</v>
       </c>
       <c r="N21" t="n">
-        <v>5.903305028305028</v>
+        <v>6.33735162143264</v>
       </c>
       <c r="O21" t="n">
-        <v>82.83333333333333</v>
+        <v>86.81533205948077</v>
       </c>
       <c r="P21" t="n">
-        <v>16.73333333333333</v>
+        <v>17.36696500852356</v>
       </c>
       <c r="Q21" t="n">
-        <v>66.09999999999999</v>
+        <v>69.44836705095719</v>
       </c>
       <c r="R21" t="n">
-        <v>70.76394814444815</v>
+        <v>88.09633623854005</v>
       </c>
       <c r="S21" t="n">
-        <v>69.51770802808302</v>
+        <v>86.12033288399269</v>
       </c>
       <c r="T21" t="n">
-        <v>68.13333333333334</v>
+        <v>71.6371939175198</v>
       </c>
       <c r="U21" t="n">
-        <v>55.76666666666667</v>
+        <v>58.63110402857036</v>
       </c>
       <c r="V21" t="n">
-        <v>4.166666666666667</v>
+        <v>4.259064489910421</v>
       </c>
       <c r="W21" t="n">
-        <v>2.033333333333333</v>
+        <v>2.182446302906389</v>
       </c>
       <c r="X21" t="n">
-        <v>12.65485394235394</v>
+        <v>15.18050310744458</v>
       </c>
       <c r="Y21" t="n">
-        <v>13.96666666666667</v>
+        <v>14.48394200383357</v>
       </c>
       <c r="Z21" t="n">
-        <v>7.3</v>
+        <v>7.591919903297013</v>
       </c>
       <c r="AA21" t="n">
-        <v>30.58167632922633</v>
+        <v>35.4033762461597</v>
       </c>
       <c r="AB21" t="n">
-        <v>106.9333333333333</v>
+        <v>111.268096993257</v>
       </c>
       <c r="AC21" t="n">
-        <v>26.46666666666667</v>
+        <v>27.20531506375753</v>
       </c>
       <c r="AD21" t="n">
-        <v>80.46666666666667</v>
+        <v>84.06278192949945</v>
       </c>
       <c r="AE21" t="n">
-        <v>70.70048712398713</v>
+        <v>86.09484505433622</v>
       </c>
       <c r="AF21" t="n">
-        <v>72.61546560939061</v>
+        <v>88.26619257964617</v>
       </c>
       <c r="AG21" t="n">
-        <v>67.53333333333333</v>
+        <v>70.78339537239779</v>
       </c>
       <c r="AH21" t="n">
-        <v>54.26666666666667</v>
+        <v>56.99870989448203</v>
       </c>
       <c r="AI21" t="n">
-        <v>5.566666666666666</v>
+        <v>5.805588614730855</v>
       </c>
       <c r="AJ21" t="n">
-        <v>3.233333333333333</v>
+        <v>3.403270007066558</v>
       </c>
       <c r="AK21" t="n">
-        <v>18.02415084915085</v>
+        <v>20.21684901392832</v>
       </c>
       <c r="AL21" t="n">
-        <v>12.9</v>
+        <v>13.37155710068285</v>
       </c>
       <c r="AM21" t="n">
-        <v>6.2</v>
+        <v>6.517117584055092</v>
       </c>
       <c r="AN21" t="n">
-        <v>29.27421733451733</v>
+        <v>32.7426562871672</v>
       </c>
     </row>
   </sheetData>
